--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业管理费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业管理费用.xlsx
@@ -2553,7 +2553,7 @@
         <v>17.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.700000000000003</v>
+        <v>0.8000000000000058</v>
       </c>
       <c r="AP4" t="n">
         <v>18.4</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.499999999999993</v>
+        <v>1.499999999999986</v>
       </c>
       <c r="AS4" t="n">
         <v>179.6</v>
@@ -2715,7 +2715,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CQ4" t="n">
-        <v>66.20000000000002</v>
+        <v>65.90000000000003</v>
       </c>
       <c r="CR4" t="n">
         <v>270.2</v>
@@ -2769,7 +2769,7 @@
         <v>7.8</v>
       </c>
       <c r="DI4" t="n">
-        <v>6.300000000000001</v>
+        <v>5.800000000000002</v>
       </c>
       <c r="DJ4" t="n">
         <v>25.9</v>
@@ -2778,7 +2778,7 @@
         <v>6.1</v>
       </c>
       <c r="DL4" t="n">
-        <v>110.5</v>
+        <v>102.7</v>
       </c>
       <c r="DM4" t="n">
         <v>477.1</v>
@@ -2805,7 +2805,7 @@
         <v>10.1</v>
       </c>
       <c r="DU4" t="n">
-        <v>2</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="DV4" t="n">
         <v>58.2</v>
@@ -2992,7 +2992,7 @@
         <v>12.9</v>
       </c>
       <c r="E5" t="n">
-        <v>4.299999999999983</v>
+        <v>1.999999999999972</v>
       </c>
       <c r="F5" t="n">
         <v>248.8</v>
@@ -3001,7 +3001,7 @@
         <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>7.600000000000001</v>
+        <v>7.100000000000006</v>
       </c>
       <c r="I5" t="n">
         <v>38.9</v>
@@ -3010,7 +3010,7 @@
         <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L5" t="n">
         <v>0.8</v>
@@ -3019,7 +3019,7 @@
         <v>-11.1</v>
       </c>
       <c r="N5" t="n">
-        <v>90.89999999999998</v>
+        <v>85.10000000000002</v>
       </c>
       <c r="O5" t="n">
         <v>474.3</v>
@@ -3028,7 +3028,7 @@
         <v>2.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.1999999999989</v>
+        <v>151.6999999999966</v>
       </c>
       <c r="R5" t="n">
         <v>15701</v>
@@ -3037,7 +3037,7 @@
         <v>9.4</v>
       </c>
       <c r="T5" t="n">
-        <v>15.30000000000001</v>
+        <v>6.100000000000021</v>
       </c>
       <c r="U5" t="n">
         <v>1210.2</v>
@@ -3064,7 +3064,7 @@
         <v>16.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.800000000000011</v>
+        <v>0.8000000000000109</v>
       </c>
       <c r="AD5" t="n">
         <v>154.4</v>
@@ -3073,7 +3073,7 @@
         <v>8.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.79999999999998</v>
+        <v>27.59999999999998</v>
       </c>
       <c r="AG5" t="n">
         <v>160.6</v>
@@ -3082,7 +3082,7 @@
         <v>12.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>253.7999999999979</v>
+        <v>151.1999999999957</v>
       </c>
       <c r="AJ5" t="n">
         <v>17294.6</v>
@@ -3091,7 +3091,7 @@
         <v>9.1</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.5</v>
       </c>
       <c r="AM5" t="n">
         <v>33.4</v>
@@ -3109,7 +3109,7 @@
         <v>-5.2</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.899999999999977</v>
+        <v>1.399999999999984</v>
       </c>
       <c r="AS5" t="n">
         <v>226</v>
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>349.8</v>
@@ -3145,7 +3145,7 @@
         <v>4.4</v>
       </c>
       <c r="BD5" t="n">
-        <v>5.399999999999892</v>
+        <v>0.1999999999999034</v>
       </c>
       <c r="BE5" t="n">
         <v>491.5</v>
@@ -3154,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.000000000000018</v>
+        <v>0.9000000000000272</v>
       </c>
       <c r="BH5" t="n">
         <v>94.59999999999999</v>
@@ -3163,7 +3163,7 @@
         <v>5.3</v>
       </c>
       <c r="BJ5" t="n">
-        <v>27</v>
+        <v>22.2000000000001</v>
       </c>
       <c r="BK5" t="n">
         <v>1670.1</v>
@@ -3172,7 +3172,7 @@
         <v>10.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>36.40000000000001</v>
+        <v>34</v>
       </c>
       <c r="BN5" t="n">
         <v>176.6</v>
@@ -3181,7 +3181,7 @@
         <v>4.3</v>
       </c>
       <c r="BP5" t="n">
-        <v>122.6999999999999</v>
+        <v>115.7999999999998</v>
       </c>
       <c r="BQ5" t="n">
         <v>658.3</v>
@@ -3217,7 +3217,7 @@
         <v>6.8</v>
       </c>
       <c r="CB5" t="n">
-        <v>22.90000000000018</v>
+        <v>22.20000000000028</v>
       </c>
       <c r="CC5" t="n">
         <v>1344.7</v>
@@ -3244,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="CK5" t="n">
-        <v>48</v>
+        <v>42.1</v>
       </c>
       <c r="CL5" t="n">
         <v>234</v>
@@ -3253,7 +3253,7 @@
         <v>4.1</v>
       </c>
       <c r="CN5" t="n">
-        <v>6.700000000000045</v>
+        <v>3.800000000000068</v>
       </c>
       <c r="CO5" t="n">
         <v>370.4</v>
@@ -3271,7 +3271,7 @@
         <v>5.2</v>
       </c>
       <c r="CT5" t="n">
-        <v>49.19999999999965</v>
+        <v>33.19999999999948</v>
       </c>
       <c r="CU5" t="n">
         <v>2037.3</v>
@@ -3280,7 +3280,7 @@
         <v>7.2</v>
       </c>
       <c r="CW5" t="n">
-        <v>13.70000000000002</v>
+        <v>4.400000000000038</v>
       </c>
       <c r="CX5" t="n">
         <v>957.1</v>
@@ -3289,7 +3289,7 @@
         <v>9.6</v>
       </c>
       <c r="CZ5" t="n">
-        <v>5.400000000000034</v>
+        <v>3.800000000000068</v>
       </c>
       <c r="DA5" t="n">
         <v>208.9</v>
@@ -3298,7 +3298,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DC5" t="n">
-        <v>4.5</v>
+        <v>1.799999999999976</v>
       </c>
       <c r="DD5" t="n">
         <v>297.3</v>
@@ -3307,7 +3307,7 @@
         <v>7.8</v>
       </c>
       <c r="DF5" t="n">
-        <v>225.8</v>
+        <v>212.2000000000001</v>
       </c>
       <c r="DG5" t="n">
         <v>1149.3</v>
@@ -3343,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="DR5" t="n">
-        <v>8.5</v>
+        <v>3.900000000000006</v>
       </c>
       <c r="DS5" t="n">
         <v>812.7</v>
@@ -3352,7 +3352,7 @@
         <v>9.9</v>
       </c>
       <c r="DU5" t="n">
-        <v>12.09999999999999</v>
+        <v>10.09999999999999</v>
       </c>
       <c r="DV5" t="n">
         <v>73.7</v>
@@ -3361,7 +3361,7 @@
         <v>5.7</v>
       </c>
       <c r="DX5" t="n">
-        <v>3.199999999999989</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="DY5" t="n">
         <v>311</v>
@@ -3370,7 +3370,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="EA5" t="n">
-        <v>101.9</v>
+        <v>70.30000000000001</v>
       </c>
       <c r="EB5" t="n">
         <v>531.5</v>
@@ -3379,7 +3379,7 @@
         <v>11.4</v>
       </c>
       <c r="ED5" t="n">
-        <v>6.300000000000008</v>
+        <v>5.900000000000007</v>
       </c>
       <c r="EE5" t="n">
         <v>80.3</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148.2</v>
+        <v>132.5</v>
       </c>
       <c r="C6" t="n">
         <v>962.2</v>
@@ -3539,7 +3539,7 @@
         <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>45.90000000000003</v>
+        <v>41.60000000000004</v>
       </c>
       <c r="F6" t="n">
         <v>305.4</v>
@@ -3575,7 +3575,7 @@
         <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2954.399999999998</v>
+        <v>2711.199999999999</v>
       </c>
       <c r="R6" t="n">
         <v>19265.5</v>
@@ -3584,7 +3584,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>219.5</v>
+        <v>204.2</v>
       </c>
       <c r="U6" t="n">
         <v>1478.5</v>
@@ -3593,7 +3593,7 @@
         <v>10.4</v>
       </c>
       <c r="W6" t="n">
-        <v>15.69999999999999</v>
+        <v>12.79999999999998</v>
       </c>
       <c r="X6" t="n">
         <v>114.3</v>
@@ -3602,7 +3602,7 @@
         <v>12.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>130.2</v>
+        <v>112.1</v>
       </c>
       <c r="AA6" t="n">
         <v>929.7</v>
@@ -3611,7 +3611,7 @@
         <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>29.79999999999998</v>
+        <v>27.99999999999997</v>
       </c>
       <c r="AD6" t="n">
         <v>186</v>
@@ -3629,7 +3629,7 @@
         <v>14.2</v>
       </c>
       <c r="AI6" t="n">
-        <v>3258</v>
+        <v>3004.200000000002</v>
       </c>
       <c r="AJ6" t="n">
         <v>21224.7</v>
@@ -3638,7 +3638,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="AM6" t="n">
         <v>41.1</v>
@@ -3647,7 +3647,7 @@
         <v>17.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>4.5</v>
+        <v>2.300000000000004</v>
       </c>
       <c r="AP6" t="n">
         <v>23.8</v>
@@ -3656,7 +3656,7 @@
         <v>-8.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>44.90000000000003</v>
+        <v>42.00000000000005</v>
       </c>
       <c r="AS6" t="n">
         <v>276.5</v>
@@ -3674,7 +3674,7 @@
         <v>17.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>16.2</v>
+        <v>15.5</v>
       </c>
       <c r="AY6" t="n">
         <v>102.6</v>
@@ -3683,7 +3683,7 @@
         <v>7.3</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.000000000000011</v>
+        <v>0.8000000000000012</v>
       </c>
       <c r="BB6" t="n">
         <v>143.3</v>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="BD6" t="n">
-        <v>92.30000000000007</v>
+        <v>86.90000000000018</v>
       </c>
       <c r="BE6" t="n">
         <v>602</v>
@@ -3701,7 +3701,7 @@
         <v>8.4</v>
       </c>
       <c r="BG6" t="n">
-        <v>18</v>
+        <v>16.99999999999998</v>
       </c>
       <c r="BH6" t="n">
         <v>116</v>
@@ -3710,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="BJ6" t="n">
-        <v>294.9000000000001</v>
+        <v>267.9000000000001</v>
       </c>
       <c r="BK6" t="n">
         <v>2032</v>
@@ -3737,7 +3737,7 @@
         <v>11.6</v>
       </c>
       <c r="BS6" t="n">
-        <v>14.8</v>
+        <v>10.59999999999999</v>
       </c>
       <c r="BT6" t="n">
         <v>98.7</v>
@@ -3746,7 +3746,7 @@
         <v>6.1</v>
       </c>
       <c r="BV6" t="n">
-        <v>86.70000000000005</v>
+        <v>74.7000000000001</v>
       </c>
       <c r="BW6" t="n">
         <v>545.2</v>
@@ -3755,7 +3755,7 @@
         <v>6.9</v>
       </c>
       <c r="BY6" t="n">
-        <v>53.89999999999998</v>
+        <v>47.19999999999999</v>
       </c>
       <c r="BZ6" t="n">
         <v>330.5</v>
@@ -3764,7 +3764,7 @@
         <v>7.1</v>
       </c>
       <c r="CB6" t="n">
-        <v>269.5999999999999</v>
+        <v>246.6999999999997</v>
       </c>
       <c r="CC6" t="n">
         <v>1651.5</v>
@@ -3773,7 +3773,7 @@
         <v>11</v>
       </c>
       <c r="CE6" t="n">
-        <v>38.19999999999999</v>
+        <v>35.29999999999999</v>
       </c>
       <c r="CF6" t="n">
         <v>229.8</v>
@@ -3782,7 +3782,7 @@
         <v>6.2</v>
       </c>
       <c r="CH6" t="n">
-        <v>64.39999999999998</v>
+        <v>54.39999999999992</v>
       </c>
       <c r="CI6" t="n">
         <v>466.9</v>
@@ -3800,7 +3800,7 @@
         <v>5.4</v>
       </c>
       <c r="CN6" t="n">
-        <v>69.60000000000002</v>
+        <v>62.89999999999998</v>
       </c>
       <c r="CO6" t="n">
         <v>453.6</v>
@@ -3818,7 +3818,7 @@
         <v>5.3</v>
       </c>
       <c r="CT6" t="n">
-        <v>414</v>
+        <v>364.8000000000004</v>
       </c>
       <c r="CU6" t="n">
         <v>2561.3</v>
@@ -3827,7 +3827,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CW6" t="n">
-        <v>177</v>
+        <v>163.3</v>
       </c>
       <c r="CX6" t="n">
         <v>1173.3</v>
@@ -3836,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="CZ6" t="n">
-        <v>40.5</v>
+        <v>35.09999999999997</v>
       </c>
       <c r="DA6" t="n">
         <v>256.2</v>
@@ -3845,7 +3845,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DC6" t="n">
-        <v>48.5</v>
+        <v>44</v>
       </c>
       <c r="DD6" t="n">
         <v>356.5</v>
@@ -3863,7 +3863,7 @@
         <v>9.1</v>
       </c>
       <c r="DI6" t="n">
-        <v>6.100000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="DJ6" t="n">
         <v>39.5</v>
@@ -3872,7 +3872,7 @@
         <v>5.1</v>
       </c>
       <c r="DL6" t="n">
-        <v>96.89999999999998</v>
+        <v>86.79999999999998</v>
       </c>
       <c r="DM6" t="n">
         <v>728.9</v>
@@ -3881,7 +3881,7 @@
         <v>7.6</v>
       </c>
       <c r="DO6" t="n">
-        <v>57.30000000000001</v>
+        <v>42.69999999999999</v>
       </c>
       <c r="DP6" t="n">
         <v>367.6</v>
@@ -3890,7 +3890,7 @@
         <v>2.7</v>
       </c>
       <c r="DR6" t="n">
-        <v>152.9</v>
+        <v>144.4</v>
       </c>
       <c r="DS6" t="n">
         <v>989.1</v>
@@ -3908,7 +3908,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DX6" t="n">
-        <v>55.59999999999997</v>
+        <v>52.39999999999998</v>
       </c>
       <c r="DY6" t="n">
         <v>377.3</v>
@@ -3926,7 +3926,7 @@
         <v>17.8</v>
       </c>
       <c r="ED6" t="n">
-        <v>14.09999999999999</v>
+        <v>7.799999999999983</v>
       </c>
       <c r="EE6" t="n">
         <v>101.4</v>
@@ -4095,7 +4095,7 @@
         <v>11.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.899999999999999</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>56.4</v>
@@ -4167,7 +4167,7 @@
         <v>6.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>28</v>
+        <v>25.29999999999998</v>
       </c>
       <c r="AG7" t="n">
         <v>227.8</v>
@@ -4230,7 +4230,7 @@
         <v>8.1</v>
       </c>
       <c r="BA7" t="n">
-        <v>14.59999999999999</v>
+        <v>13.59999999999998</v>
       </c>
       <c r="BB7" t="n">
         <v>166.9</v>
@@ -4446,7 +4446,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="DU7" t="n">
-        <v>11.7</v>
+        <v>9.399999999999981</v>
       </c>
       <c r="DV7" t="n">
         <v>103.8</v>
@@ -4464,7 +4464,7 @@
         <v>8.9</v>
       </c>
       <c r="EA7" t="n">
-        <v>106.7</v>
+        <v>90.40000000000011</v>
       </c>
       <c r="EB7" t="n">
         <v>817.1</v>
@@ -4669,7 +4669,7 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.699999999998</v>
+        <v>195.6999999999948</v>
       </c>
       <c r="R8" t="n">
         <v>25853.9</v>
@@ -4678,7 +4678,7 @@
         <v>10.3</v>
       </c>
       <c r="T8" t="n">
-        <v>20.10000000000008</v>
+        <v>15.30000000000007</v>
       </c>
       <c r="U8" t="n">
         <v>1986</v>
@@ -4696,7 +4696,7 @@
         <v>15.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.099999999999909</v>
+        <v>1.299999999999898</v>
       </c>
       <c r="AA8" t="n">
         <v>1248.3</v>
@@ -4705,7 +4705,7 @@
         <v>17.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>29.29999999999998</v>
+        <v>28.79999999999995</v>
       </c>
       <c r="AD8" t="n">
         <v>248.8</v>
@@ -4723,7 +4723,7 @@
         <v>11.7</v>
       </c>
       <c r="AI8" t="n">
-        <v>244.5</v>
+        <v>238</v>
       </c>
       <c r="AJ8" t="n">
         <v>28513.9</v>
@@ -4732,7 +4732,7 @@
         <v>10.2</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.300000000000004</v>
+        <v>0.4000000000000055</v>
       </c>
       <c r="AM8" t="n">
         <v>56.8</v>
@@ -4750,7 +4750,7 @@
         <v>-10.6</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.7000000000000384</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="AS8" t="n">
         <v>372</v>
@@ -4759,7 +4759,7 @@
         <v>6.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>62.49999999999994</v>
+        <v>62.19999999999993</v>
       </c>
       <c r="AV8" t="n">
         <v>578.1</v>
@@ -4768,7 +4768,7 @@
         <v>15.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AY8" t="n">
         <v>137.3</v>
@@ -4786,7 +4786,7 @@
         <v>6.1</v>
       </c>
       <c r="BD8" t="n">
-        <v>90.39999999999998</v>
+        <v>90.20000000000005</v>
       </c>
       <c r="BE8" t="n">
         <v>805.2</v>
@@ -4795,7 +4795,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.800000000000018</v>
+        <v>2.700000000000027</v>
       </c>
       <c r="BH8" t="n">
         <v>156.1</v>
@@ -4804,7 +4804,7 @@
         <v>8</v>
       </c>
       <c r="BJ8" t="n">
-        <v>47.90000000000009</v>
+        <v>38.60000000000036</v>
       </c>
       <c r="BK8" t="n">
         <v>2725.5</v>
@@ -4813,7 +4813,7 @@
         <v>11.6</v>
       </c>
       <c r="BM8" t="n">
-        <v>37.5</v>
+        <v>34.8</v>
       </c>
       <c r="BN8" t="n">
         <v>287.8</v>
@@ -4822,7 +4822,7 @@
         <v>2.9</v>
       </c>
       <c r="BP8" t="n">
-        <v>28.5</v>
+        <v>23.19999999999999</v>
       </c>
       <c r="BQ8" t="n">
         <v>1110.4</v>
@@ -4831,7 +4831,7 @@
         <v>14.1</v>
       </c>
       <c r="BS8" t="n">
-        <v>18.10000000000001</v>
+        <v>12.90000000000001</v>
       </c>
       <c r="BT8" t="n">
         <v>138.1</v>
@@ -4840,7 +4840,7 @@
         <v>8.1</v>
       </c>
       <c r="BV8" t="n">
-        <v>10.10000000000016</v>
+        <v>6.600000000000273</v>
       </c>
       <c r="BW8" t="n">
         <v>736.4</v>
@@ -4867,7 +4867,7 @@
         <v>10.5</v>
       </c>
       <c r="CE8" t="n">
-        <v>38.80000000000001</v>
+        <v>34.80000000000001</v>
       </c>
       <c r="CF8" t="n">
         <v>315.3</v>
@@ -4939,7 +4939,7 @@
         <v>11.6</v>
       </c>
       <c r="DC8" t="n">
-        <v>7.399999999999977</v>
+        <v>4.399999999999977</v>
       </c>
       <c r="DD8" t="n">
         <v>462.9</v>
@@ -4948,7 +4948,7 @@
         <v>7</v>
       </c>
       <c r="DF8" t="n">
-        <v>38.59999999999991</v>
+        <v>35.5</v>
       </c>
       <c r="DG8" t="n">
         <v>1923.5</v>
@@ -4975,7 +4975,7 @@
         <v>8.5</v>
       </c>
       <c r="DO8" t="n">
-        <v>4.599999999999973</v>
+        <v>2.999999999999957</v>
       </c>
       <c r="DP8" t="n">
         <v>490.7</v>
@@ -5002,7 +5002,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DX8" t="n">
-        <v>63.5</v>
+        <v>53.99999999999995</v>
       </c>
       <c r="DY8" t="n">
         <v>508.1</v>
@@ -5020,7 +5020,7 @@
         <v>20</v>
       </c>
       <c r="ED8" t="n">
-        <v>2.099999999999991</v>
+        <v>0.7999999999999732</v>
       </c>
       <c r="EE8" t="n">
         <v>133.5</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.0999999999999</v>
+        <v>132.5999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>1432.2</v>
@@ -5180,7 +5180,7 @@
         <v>9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>48.5</v>
+        <v>45.89999999999998</v>
       </c>
       <c r="F9" t="n">
         <v>471.3</v>
@@ -5189,7 +5189,7 @@
         <v>11.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.600000000000001</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>66.2</v>
@@ -5207,7 +5207,7 @@
         <v>-31.3</v>
       </c>
       <c r="N9" t="n">
-        <v>80.39999999999998</v>
+        <v>72.09999999999991</v>
       </c>
       <c r="O9" t="n">
         <v>840.5</v>
@@ -5216,7 +5216,7 @@
         <v>3.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>3127.200000000001</v>
+        <v>2931.500000000003</v>
       </c>
       <c r="R9" t="n">
         <v>29329.4</v>
@@ -5234,7 +5234,7 @@
         <v>11.4</v>
       </c>
       <c r="W9" t="n">
-        <v>19.5</v>
+        <v>18.00000000000003</v>
       </c>
       <c r="X9" t="n">
         <v>177</v>
@@ -5243,7 +5243,7 @@
         <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>137.1000000000001</v>
+        <v>130.0000000000002</v>
       </c>
       <c r="AA9" t="n">
         <v>1414.4</v>
@@ -5270,7 +5270,7 @@
         <v>12.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>3450.299999999999</v>
+        <v>3205.799999999999</v>
       </c>
       <c r="AJ9" t="n">
         <v>32347.1</v>
@@ -5279,7 +5279,7 @@
         <v>10.1</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.5</v>
+        <v>4.199999999999996</v>
       </c>
       <c r="AM9" t="n">
         <v>66.5</v>
@@ -5324,7 +5324,7 @@
         <v>6.9</v>
       </c>
       <c r="BA9" t="n">
-        <v>21.90000000000001</v>
+        <v>13.40000000000001</v>
       </c>
       <c r="BB9" t="n">
         <v>212.7</v>
@@ -5342,7 +5342,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="BG9" t="n">
-        <v>20.09999999999999</v>
+        <v>17.29999999999997</v>
       </c>
       <c r="BH9" t="n">
         <v>177.5</v>
@@ -5351,7 +5351,7 @@
         <v>7.3</v>
       </c>
       <c r="BJ9" t="n">
-        <v>338.9000000000001</v>
+        <v>291</v>
       </c>
       <c r="BK9" t="n">
         <v>3105.2</v>
@@ -5369,7 +5369,7 @@
         <v>3.3</v>
       </c>
       <c r="BP9" t="n">
-        <v>131</v>
+        <v>102.5</v>
       </c>
       <c r="BQ9" t="n">
         <v>1250.1</v>
@@ -5387,7 +5387,7 @@
         <v>8.4</v>
       </c>
       <c r="BV9" t="n">
-        <v>94.5</v>
+        <v>84.39999999999984</v>
       </c>
       <c r="BW9" t="n">
         <v>840.7</v>
@@ -5396,7 +5396,7 @@
         <v>6.8</v>
       </c>
       <c r="BY9" t="n">
-        <v>58.09999999999997</v>
+        <v>48.79999999999996</v>
       </c>
       <c r="BZ9" t="n">
         <v>505.1</v>
@@ -5405,7 +5405,7 @@
         <v>6.2</v>
       </c>
       <c r="CB9" t="n">
-        <v>24.00000000000048</v>
+        <v>13.4000000000008</v>
       </c>
       <c r="CC9" t="n">
         <v>2502.3</v>
@@ -5423,7 +5423,7 @@
         <v>5.9</v>
       </c>
       <c r="CH9" t="n">
-        <v>72</v>
+        <v>64.90000000000009</v>
       </c>
       <c r="CI9" t="n">
         <v>714.2</v>
@@ -5432,7 +5432,7 @@
         <v>6.8</v>
       </c>
       <c r="CK9" t="n">
-        <v>48.20000000000005</v>
+        <v>43.20000000000012</v>
       </c>
       <c r="CL9" t="n">
         <v>451.7</v>
@@ -5441,7 +5441,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CN9" t="n">
-        <v>70.79999999999995</v>
+        <v>59.0999999999998</v>
       </c>
       <c r="CO9" t="n">
         <v>675.3</v>
@@ -5459,7 +5459,7 @@
         <v>5.2</v>
       </c>
       <c r="CT9" t="n">
-        <v>437</v>
+        <v>422.7000000000008</v>
       </c>
       <c r="CU9" t="n">
         <v>4040.9</v>
@@ -5477,7 +5477,7 @@
         <v>10</v>
       </c>
       <c r="CZ9" t="n">
-        <v>41.5</v>
+        <v>37.49999999999995</v>
       </c>
       <c r="DA9" t="n">
         <v>398.7</v>
@@ -5486,7 +5486,7 @@
         <v>12.1</v>
       </c>
       <c r="DC9" t="n">
-        <v>57.39999999999998</v>
+        <v>50</v>
       </c>
       <c r="DD9" t="n">
         <v>523.5</v>
@@ -5495,7 +5495,7 @@
         <v>6.5</v>
       </c>
       <c r="DF9" t="n">
-        <v>228.5999999999999</v>
+        <v>190</v>
       </c>
       <c r="DG9" t="n">
         <v>2177</v>
@@ -5513,7 +5513,7 @@
         <v>6.5</v>
       </c>
       <c r="DL9" t="n">
-        <v>6.299999999999997</v>
+        <v>5.899999999999991</v>
       </c>
       <c r="DM9" t="n">
         <v>1073.4</v>
@@ -5522,7 +5522,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="DO9" t="n">
-        <v>52.5</v>
+        <v>47.90000000000003</v>
       </c>
       <c r="DP9" t="n">
         <v>544.2</v>
@@ -5540,7 +5540,7 @@
         <v>10.2</v>
       </c>
       <c r="DU9" t="n">
-        <v>13.90000000000001</v>
+        <v>10.10000000000001</v>
       </c>
       <c r="DV9" t="n">
         <v>132.2</v>
@@ -5567,7 +5567,7 @@
         <v>21.9</v>
       </c>
       <c r="ED9" t="n">
-        <v>17.19999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="EE9" t="n">
         <v>150.8</v>
@@ -5736,7 +5736,7 @@
         <v>10.7</v>
       </c>
       <c r="H10" t="n">
-        <v>6.299999999999997</v>
+        <v>3.699999999999996</v>
       </c>
       <c r="I10" t="n">
         <v>74.8</v>
@@ -5844,7 +5844,7 @@
         <v>-3.3</v>
       </c>
       <c r="AR10" t="n">
-        <v>43.80000000000001</v>
+        <v>43.10000000000002</v>
       </c>
       <c r="AS10" t="n">
         <v>470</v>
@@ -5880,7 +5880,7 @@
         <v>6.8</v>
       </c>
       <c r="BD10" t="n">
-        <v>11.59999999999989</v>
+        <v>4.499999999999867</v>
       </c>
       <c r="BE10" t="n">
         <v>1008.3</v>
@@ -5997,7 +5997,7 @@
         <v>8.9</v>
       </c>
       <c r="CQ10" t="n">
-        <v>63.80000000000007</v>
+        <v>57.20000000000005</v>
       </c>
       <c r="CR10" t="n">
         <v>655.6</v>
@@ -6015,7 +6015,7 @@
         <v>10.3</v>
       </c>
       <c r="CW10" t="n">
-        <v>184.5999999999999</v>
+        <v>179.9</v>
       </c>
       <c r="CX10" t="n">
         <v>1969.3</v>
@@ -6060,7 +6060,7 @@
         <v>5.9</v>
       </c>
       <c r="DL10" t="n">
-        <v>108.8</v>
+        <v>102.5</v>
       </c>
       <c r="DM10" t="n">
         <v>1195.8</v>
@@ -6078,7 +6078,7 @@
         <v>2.3</v>
       </c>
       <c r="DR10" t="n">
-        <v>19.5</v>
+        <v>16.30000000000018</v>
       </c>
       <c r="DS10" t="n">
         <v>1652.2</v>
@@ -6105,7 +6105,7 @@
         <v>7.7</v>
       </c>
       <c r="EA10" t="n">
-        <v>102.3</v>
+        <v>101.6999999999999</v>
       </c>
       <c r="EB10" t="n">
         <v>1256.2</v>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.6999999999999</v>
+        <v>70.1999999999997</v>
       </c>
       <c r="C11" t="n">
         <v>1791.9</v>
@@ -6274,7 +6274,7 @@
         <v>10.7</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49999999999994</v>
+        <v>22.99999999999988</v>
       </c>
       <c r="F11" t="n">
         <v>577.5</v>
@@ -6292,7 +6292,7 @@
         <v>11.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09999999999999987</v>
+        <v>0.09999999999999963</v>
       </c>
       <c r="L11" t="n">
         <v>1.2</v>
@@ -6301,7 +6301,7 @@
         <v>-33.3</v>
       </c>
       <c r="N11" t="n">
-        <v>108.4000000000001</v>
+        <v>77.80000000000008</v>
       </c>
       <c r="O11" t="n">
         <v>1041.1</v>
@@ -6310,7 +6310,7 @@
         <v>3.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1396.200000000008</v>
+        <v>1180.500000000011</v>
       </c>
       <c r="R11" t="n">
         <v>36517.8</v>
@@ -6319,7 +6319,7 @@
         <v>10.4</v>
       </c>
       <c r="T11" t="n">
-        <v>91.69999999999979</v>
+        <v>91.69999999999928</v>
       </c>
       <c r="U11" t="n">
         <v>2810.1</v>
@@ -6337,7 +6337,7 @@
         <v>13.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>82</v>
+        <v>56.10000000000011</v>
       </c>
       <c r="AA11" t="n">
         <v>1781</v>
@@ -6346,7 +6346,7 @@
         <v>18.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.199999999999989</v>
+        <v>7.099999999999966</v>
       </c>
       <c r="AD11" t="n">
         <v>346.8</v>
@@ -6355,7 +6355,7 @@
         <v>8.1</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.600000000000016</v>
+        <v>8.300000000000054</v>
       </c>
       <c r="AG11" t="n">
         <v>354.4</v>
@@ -6364,7 +6364,7 @@
         <v>11.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>1645.400000000001</v>
+        <v>1367.2</v>
       </c>
       <c r="AJ11" t="n">
         <v>40332.9</v>
@@ -6373,7 +6373,7 @@
         <v>10.3</v>
       </c>
       <c r="AL11" t="n">
-        <v>3.400000000000006</v>
+        <v>0.8000000000000123</v>
       </c>
       <c r="AM11" t="n">
         <v>84.90000000000001</v>
@@ -6382,7 +6382,7 @@
         <v>21.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>10.8</v>
+        <v>9.200000000000006</v>
       </c>
       <c r="AP11" t="n">
         <v>51.1</v>
@@ -6400,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>53.20000000000007</v>
+        <v>46.90000000000023</v>
       </c>
       <c r="AV11" t="n">
         <v>816.9</v>
@@ -6409,7 +6409,7 @@
         <v>14.7</v>
       </c>
       <c r="AX11" t="n">
-        <v>20.09999999999999</v>
+        <v>16.59999999999999</v>
       </c>
       <c r="AY11" t="n">
         <v>195.5</v>
@@ -6418,7 +6418,7 @@
         <v>10.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>23.40000000000001</v>
+        <v>21.20000000000003</v>
       </c>
       <c r="BB11" t="n">
         <v>264.6</v>
@@ -6445,7 +6445,7 @@
         <v>7.4</v>
       </c>
       <c r="BJ11" t="n">
-        <v>106.0000000000005</v>
+        <v>48.30000000000068</v>
       </c>
       <c r="BK11" t="n">
         <v>3858.3</v>
@@ -6454,7 +6454,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BM11" t="n">
-        <v>42.79999999999995</v>
+        <v>7.999999999999936</v>
       </c>
       <c r="BN11" t="n">
         <v>414.6</v>
@@ -6472,7 +6472,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BS11" t="n">
-        <v>20.69999999999996</v>
+        <v>19.39999999999992</v>
       </c>
       <c r="BT11" t="n">
         <v>196.5</v>
@@ -6481,7 +6481,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BV11" t="n">
-        <v>87.0000000000001</v>
+        <v>72.7000000000001</v>
       </c>
       <c r="BW11" t="n">
         <v>1062</v>
@@ -6490,7 +6490,7 @@
         <v>7.2</v>
       </c>
       <c r="BY11" t="n">
-        <v>54.19999999999993</v>
+        <v>40.99999999999983</v>
       </c>
       <c r="BZ11" t="n">
         <v>645</v>
@@ -6499,7 +6499,7 @@
         <v>6.6</v>
       </c>
       <c r="CB11" t="n">
-        <v>97.00000000000045</v>
+        <v>78.900000000001</v>
       </c>
       <c r="CC11" t="n">
         <v>3151.3</v>
@@ -6508,7 +6508,7 @@
         <v>11.4</v>
       </c>
       <c r="CE11" t="n">
-        <v>10.10000000000002</v>
+        <v>8.699999999999985</v>
       </c>
       <c r="CF11" t="n">
         <v>438.2</v>
@@ -6517,7 +6517,7 @@
         <v>5.9</v>
       </c>
       <c r="CH11" t="n">
-        <v>9.700000000000045</v>
+        <v>2.700000000000045</v>
       </c>
       <c r="CI11" t="n">
         <v>875.3</v>
@@ -6526,7 +6526,7 @@
         <v>6.8</v>
       </c>
       <c r="CK11" t="n">
-        <v>96.10000000000005</v>
+        <v>89.50000000000016</v>
       </c>
       <c r="CL11" t="n">
         <v>583.8</v>
@@ -6553,7 +6553,7 @@
         <v>5.6</v>
       </c>
       <c r="CT11" t="n">
-        <v>319.5999999999995</v>
+        <v>295.199999999999</v>
       </c>
       <c r="CU11" t="n">
         <v>5089.3</v>
@@ -6580,7 +6580,7 @@
         <v>13.9</v>
       </c>
       <c r="DC11" t="n">
-        <v>16.39999999999997</v>
+        <v>13.59999999999989</v>
       </c>
       <c r="DD11" t="n">
         <v>643.5</v>
@@ -6589,7 +6589,7 @@
         <v>5.6</v>
       </c>
       <c r="DF11" t="n">
-        <v>162.1999999999998</v>
+        <v>113.9999999999995</v>
       </c>
       <c r="DG11" t="n">
         <v>2753.1</v>
@@ -6598,7 +6598,7 @@
         <v>10.2</v>
       </c>
       <c r="DI11" t="n">
-        <v>3.899999999999999</v>
+        <v>3.599999999999995</v>
       </c>
       <c r="DJ11" t="n">
         <v>73.90000000000001</v>
@@ -6616,7 +6616,7 @@
         <v>9.6</v>
       </c>
       <c r="DO11" t="n">
-        <v>36.00000000000003</v>
+        <v>23.10000000000005</v>
       </c>
       <c r="DP11" t="n">
         <v>671.3</v>
@@ -6625,7 +6625,7 @@
         <v>2.4</v>
       </c>
       <c r="DR11" t="n">
-        <v>38.40000000000009</v>
+        <v>18.90000000000009</v>
       </c>
       <c r="DS11" t="n">
         <v>1850.7</v>
@@ -6634,7 +6634,7 @@
         <v>11.8</v>
       </c>
       <c r="DU11" t="n">
-        <v>9.900000000000009</v>
+        <v>9.200000000000028</v>
       </c>
       <c r="DV11" t="n">
         <v>164.5</v>
@@ -6652,7 +6652,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="EA11" t="n">
-        <v>115.7</v>
+        <v>13.40000000000001</v>
       </c>
       <c r="EB11" t="n">
         <v>1356</v>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>239.8</v>
+        <v>155.1000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>2078.9</v>
@@ -6821,7 +6821,7 @@
         <v>11.2</v>
       </c>
       <c r="E12" t="n">
-        <v>73.5</v>
+        <v>44.00000000000006</v>
       </c>
       <c r="F12" t="n">
         <v>675.1</v>
@@ -6839,7 +6839,7 @@
         <v>10.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1000000000000001</v>
+        <v>2.359223927328458e-16</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -6884,7 +6884,7 @@
         <v>14.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>231.4</v>
+        <v>149.4</v>
       </c>
       <c r="AA12" t="n">
         <v>2047.8</v>
@@ -6893,7 +6893,7 @@
         <v>17.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.6</v>
+        <v>9.400000000000013</v>
       </c>
       <c r="AD12" t="n">
         <v>386.8</v>
@@ -6929,7 +6929,7 @@
         <v>22.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>11.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP12" t="n">
         <v>69.2</v>
@@ -6938,7 +6938,7 @@
         <v>7.6</v>
       </c>
       <c r="AR12" t="n">
-        <v>26.70000000000002</v>
+        <v>20.40000000000006</v>
       </c>
       <c r="AS12" t="n">
         <v>578.7</v>
@@ -6947,7 +6947,7 @@
         <v>7.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>111.1</v>
+        <v>57.89999999999993</v>
       </c>
       <c r="AV12" t="n">
         <v>955.4</v>
@@ -6956,7 +6956,7 @@
         <v>13.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>29.3</v>
+        <v>9.20000000000001</v>
       </c>
       <c r="AY12" t="n">
         <v>230.3</v>
@@ -6974,7 +6974,7 @@
         <v>6.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>42.59999999999981</v>
+        <v>32.39999999999951</v>
       </c>
       <c r="BE12" t="n">
         <v>1252.5</v>
@@ -7001,7 +7001,7 @@
         <v>7.6</v>
       </c>
       <c r="BM12" t="n">
-        <v>70.3</v>
+        <v>27.50000000000005</v>
       </c>
       <c r="BN12" t="n">
         <v>498.2</v>
@@ -7010,7 +7010,7 @@
         <v>6.7</v>
       </c>
       <c r="BP12" t="n">
-        <v>43.40000000000001</v>
+        <v>26.60000000000011</v>
       </c>
       <c r="BQ12" t="n">
         <v>1712.7</v>
@@ -7019,7 +7019,7 @@
         <v>6.2</v>
       </c>
       <c r="BS12" t="n">
-        <v>34.8</v>
+        <v>14.10000000000004</v>
       </c>
       <c r="BT12" t="n">
         <v>240</v>
@@ -7028,7 +7028,7 @@
         <v>10</v>
       </c>
       <c r="BV12" t="n">
-        <v>176.8</v>
+        <v>89.79999999999991</v>
       </c>
       <c r="BW12" t="n">
         <v>1283.2</v>
@@ -7037,7 +7037,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BY12" t="n">
-        <v>103.5</v>
+        <v>49.30000000000007</v>
       </c>
       <c r="BZ12" t="n">
         <v>785.4</v>
@@ -7055,7 +7055,7 @@
         <v>11.6</v>
       </c>
       <c r="CE12" t="n">
-        <v>15.59999999999997</v>
+        <v>5.49999999999995</v>
       </c>
       <c r="CF12" t="n">
         <v>498.8</v>
@@ -7064,7 +7064,7 @@
         <v>7.6</v>
       </c>
       <c r="CH12" t="n">
-        <v>58.59999999999997</v>
+        <v>48.89999999999993</v>
       </c>
       <c r="CI12" t="n">
         <v>972.1</v>
@@ -7082,7 +7082,7 @@
         <v>-6</v>
       </c>
       <c r="CN12" t="n">
-        <v>36.60000000000009</v>
+        <v>32.20000000000022</v>
       </c>
       <c r="CO12" t="n">
         <v>919.5</v>
@@ -7091,7 +7091,7 @@
         <v>8.1</v>
       </c>
       <c r="CQ12" t="n">
-        <v>28.30000000000003</v>
+        <v>5.20000000000012</v>
       </c>
       <c r="CR12" t="n">
         <v>833.5</v>
@@ -7100,7 +7100,7 @@
         <v>7.3</v>
       </c>
       <c r="CT12" t="n">
-        <v>507.9</v>
+        <v>188.3000000000005</v>
       </c>
       <c r="CU12" t="n">
         <v>5929</v>
@@ -7118,7 +7118,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="CZ12" t="n">
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="DA12" t="n">
         <v>559.4</v>
@@ -7127,7 +7127,7 @@
         <v>13.5</v>
       </c>
       <c r="DC12" t="n">
-        <v>39.39999999999998</v>
+        <v>23.00000000000001</v>
       </c>
       <c r="DD12" t="n">
         <v>734.9</v>
@@ -7136,7 +7136,7 @@
         <v>7.2</v>
       </c>
       <c r="DF12" t="n">
-        <v>405.8</v>
+        <v>243.6000000000002</v>
       </c>
       <c r="DG12" t="n">
         <v>3044.6</v>
@@ -7163,7 +7163,7 @@
         <v>10</v>
       </c>
       <c r="DO12" t="n">
-        <v>92.59999999999999</v>
+        <v>56.59999999999997</v>
       </c>
       <c r="DP12" t="n">
         <v>823.1</v>
@@ -7172,7 +7172,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DR12" t="n">
-        <v>70.30000000000001</v>
+        <v>31.89999999999992</v>
       </c>
       <c r="DS12" t="n">
         <v>2096.4</v>
@@ -7199,7 +7199,7 @@
         <v>9.1</v>
       </c>
       <c r="EA12" t="n">
-        <v>183.6</v>
+        <v>67.89999999999999</v>
       </c>
       <c r="EB12" t="n">
         <v>1604.4</v>
@@ -7377,7 +7377,7 @@
         <v>-2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>6.399999999999999</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>11.9</v>
@@ -7386,7 +7386,7 @@
         <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2</v>
+        <v>0.09999999999999991</v>
       </c>
       <c r="L13" t="n">
         <v>0.2</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>84.09999999999999</v>
+        <v>34.40000000000011</v>
       </c>
       <c r="O13" t="n">
         <v>164.5</v>
@@ -7404,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2613.799999999999</v>
+        <v>2408.800000000004</v>
       </c>
       <c r="R13" t="n">
         <v>4917.4</v>
@@ -7413,7 +7413,7 @@
         <v>-0.5</v>
       </c>
       <c r="T13" t="n">
-        <v>207.2</v>
+        <v>163.2</v>
       </c>
       <c r="U13" t="n">
         <v>388.2</v>
@@ -7422,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>13.3</v>
+        <v>11.40000000000002</v>
       </c>
       <c r="X13" t="n">
         <v>31.3</v>
@@ -7440,7 +7440,7 @@
         <v>2.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>26.9</v>
+        <v>10.3</v>
       </c>
       <c r="AD13" t="n">
         <v>53.7</v>
@@ -7449,7 +7449,7 @@
         <v>2.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>29.2</v>
+        <v>20.49999999999999</v>
       </c>
       <c r="AG13" t="n">
         <v>52.6</v>
@@ -7458,7 +7458,7 @@
         <v>4.4</v>
       </c>
       <c r="AI13" t="n">
-        <v>2927.2</v>
+        <v>2774.400000000001</v>
       </c>
       <c r="AJ13" t="n">
         <v>5577.8</v>
@@ -7467,7 +7467,7 @@
         <v>0.9</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.099999999999998</v>
+        <v>5.799999999999997</v>
       </c>
       <c r="AM13" t="n">
         <v>14.2</v>
@@ -7485,7 +7485,7 @@
         <v>-7.1</v>
       </c>
       <c r="AR13" t="n">
-        <v>40.60000000000001</v>
+        <v>13.89999999999999</v>
       </c>
       <c r="AS13" t="n">
         <v>80.90000000000001</v>
@@ -7512,7 +7512,7 @@
         <v>9.9</v>
       </c>
       <c r="BA13" t="n">
-        <v>20.8</v>
+        <v>8.10000000000001</v>
       </c>
       <c r="BB13" t="n">
         <v>38.4</v>
@@ -7521,7 +7521,7 @@
         <v>6.4</v>
       </c>
       <c r="BD13" t="n">
-        <v>83</v>
+        <v>40.40000000000019</v>
       </c>
       <c r="BE13" t="n">
         <v>161.4</v>
@@ -7530,7 +7530,7 @@
         <v>-0.3</v>
       </c>
       <c r="BG13" t="n">
-        <v>20.3</v>
+        <v>13.89999999999999</v>
       </c>
       <c r="BH13" t="n">
         <v>41.9</v>
@@ -7539,7 +7539,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BJ13" t="n">
-        <v>296.7</v>
+        <v>274.5000000000005</v>
       </c>
       <c r="BK13" t="n">
         <v>494</v>
@@ -7557,7 +7557,7 @@
         <v>2.1</v>
       </c>
       <c r="BP13" t="n">
-        <v>123.2</v>
+        <v>79.79999999999998</v>
       </c>
       <c r="BQ13" t="n">
         <v>232.1</v>
@@ -7593,7 +7593,7 @@
         <v>64.8</v>
       </c>
       <c r="CB13" t="n">
-        <v>209.9</v>
+        <v>199.8000000000002</v>
       </c>
       <c r="CC13" t="n">
         <v>384.4</v>
@@ -7602,7 +7602,7 @@
         <v>-4.6</v>
       </c>
       <c r="CE13" t="n">
-        <v>37.40000000000001</v>
+        <v>21.80000000000004</v>
       </c>
       <c r="CF13" t="n">
         <v>69.90000000000001</v>
@@ -7611,7 +7611,7 @@
         <v>6.7</v>
       </c>
       <c r="CH13" t="n">
-        <v>78.09999999999999</v>
+        <v>19.50000000000002</v>
       </c>
       <c r="CI13" t="n">
         <v>130.7</v>
@@ -7629,7 +7629,7 @@
         <v>-2</v>
       </c>
       <c r="CN13" t="n">
-        <v>64.3</v>
+        <v>27.69999999999991</v>
       </c>
       <c r="CO13" t="n">
         <v>123.7</v>
@@ -7638,7 +7638,7 @@
         <v>5.5</v>
       </c>
       <c r="CQ13" t="n">
-        <v>60.60000000000001</v>
+        <v>32.29999999999998</v>
       </c>
       <c r="CR13" t="n">
         <v>121.2</v>
@@ -7656,7 +7656,7 @@
         <v>-14.7</v>
       </c>
       <c r="CW13" t="n">
-        <v>162.1</v>
+        <v>130.8000000000001</v>
       </c>
       <c r="CX13" t="n">
         <v>305.2</v>
@@ -7665,7 +7665,7 @@
         <v>-0.2</v>
       </c>
       <c r="CZ13" t="n">
-        <v>35.8</v>
+        <v>21.8</v>
       </c>
       <c r="DA13" t="n">
         <v>68.7</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="DC13" t="n">
-        <v>51</v>
+        <v>11.60000000000002</v>
       </c>
       <c r="DD13" t="n">
         <v>122.7</v>
@@ -7692,7 +7692,7 @@
         <v>1.2</v>
       </c>
       <c r="DI13" t="n">
-        <v>6.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="DJ13" t="n">
         <v>15.8</v>
@@ -7701,7 +7701,7 @@
         <v>35</v>
       </c>
       <c r="DL13" t="n">
-        <v>106.3</v>
+        <v>61.8</v>
       </c>
       <c r="DM13" t="n">
         <v>214.3</v>
@@ -7719,7 +7719,7 @@
         <v>-4.6</v>
       </c>
       <c r="DR13" t="n">
-        <v>151.2</v>
+        <v>80.89999999999998</v>
       </c>
       <c r="DS13" t="n">
         <v>298.9</v>
@@ -7728,7 +7728,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DU13" t="n">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="DV13" t="n">
         <v>27.1</v>
@@ -7737,7 +7737,7 @@
         <v>4.6</v>
       </c>
       <c r="DX13" t="n">
-        <v>61.3</v>
+        <v>55.09999999999999</v>
       </c>
       <c r="DY13" t="n">
         <v>115.7</v>
@@ -7755,7 +7755,7 @@
         <v>5.1</v>
       </c>
       <c r="ED13" t="n">
-        <v>15.1</v>
+        <v>8.4</v>
       </c>
       <c r="EE13" t="n">
         <v>30.4</v>
@@ -8471,7 +8471,7 @@
         <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4.700000000000003</v>
+        <v>3.600000000000002</v>
       </c>
       <c r="I15" t="n">
         <v>25.3</v>
@@ -8534,7 +8534,7 @@
         <v>4.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5999999999999908</v>
+        <v>0.5999999999999801</v>
       </c>
       <c r="AD15" t="n">
         <v>110.3</v>
@@ -8543,7 +8543,7 @@
         <v>3.7</v>
       </c>
       <c r="AF15" t="n">
-        <v>18.69999999999999</v>
+        <v>13.49999999999998</v>
       </c>
       <c r="AG15" t="n">
         <v>111.2</v>
@@ -8570,7 +8570,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="AP15" t="n">
         <v>22.7</v>
@@ -8615,7 +8615,7 @@
         <v>6.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>86.09999999999997</v>
+        <v>80.39999999999995</v>
       </c>
       <c r="BE15" t="n">
         <v>337.8</v>
@@ -8642,7 +8642,7 @@
         <v>-4.9</v>
       </c>
       <c r="BM15" t="n">
-        <v>30</v>
+        <v>27.3</v>
       </c>
       <c r="BN15" t="n">
         <v>137.8</v>
@@ -8651,7 +8651,7 @@
         <v>3.6</v>
       </c>
       <c r="BP15" t="n">
-        <v>123.2</v>
+        <v>122.5</v>
       </c>
       <c r="BQ15" t="n">
         <v>483</v>
@@ -8714,7 +8714,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="CK15" t="n">
-        <v>39.19999999999999</v>
+        <v>32.29999999999997</v>
       </c>
       <c r="CL15" t="n">
         <v>152.7</v>
@@ -8741,7 +8741,7 @@
         <v>5.6</v>
       </c>
       <c r="CT15" t="n">
-        <v>241.3999999999999</v>
+        <v>230.9999999999999</v>
       </c>
       <c r="CU15" t="n">
         <v>910.4</v>
@@ -8777,7 +8777,7 @@
         <v>5.1</v>
       </c>
       <c r="DF15" t="n">
-        <v>212.3</v>
+        <v>205.8999999999998</v>
       </c>
       <c r="DG15" t="n">
         <v>841.5</v>
@@ -8804,7 +8804,7 @@
         <v>5</v>
       </c>
       <c r="DO15" t="n">
-        <v>43.80000000000001</v>
+        <v>39.20000000000002</v>
       </c>
       <c r="DP15" t="n">
         <v>179.5</v>
@@ -8849,7 +8849,7 @@
         <v>4.2</v>
       </c>
       <c r="ED15" t="n">
-        <v>13.90000000000001</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="EE15" t="n">
         <v>61.2</v>
@@ -9027,7 +9027,7 @@
         <v>5.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1000000000000001</v>
+        <v>1.249000902703301e-16</v>
       </c>
       <c r="L16" t="n">
         <v>0.7</v>
@@ -9045,7 +9045,7 @@
         <v>3.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>326.6999999999989</v>
+        <v>289.8999999999978</v>
       </c>
       <c r="R16" t="n">
         <v>12743.9</v>
@@ -9054,7 +9054,7 @@
         <v>1.2</v>
       </c>
       <c r="T16" t="n">
-        <v>19.8000000000001</v>
+        <v>16</v>
       </c>
       <c r="U16" t="n">
         <v>1017.1</v>
@@ -9063,7 +9063,7 @@
         <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>15.40000000000001</v>
+        <v>14.40000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>79.09999999999999</v>
@@ -9072,7 +9072,7 @@
         <v>7.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.10000000000001</v>
+        <v>8.10000000000001</v>
       </c>
       <c r="AA16" t="n">
         <v>606</v>
@@ -9099,7 +9099,7 @@
         <v>5.4</v>
       </c>
       <c r="AI16" t="n">
-        <v>359.4000000000024</v>
+        <v>331.7000000000035</v>
       </c>
       <c r="AJ16" t="n">
         <v>14420.2</v>
@@ -9108,7 +9108,7 @@
         <v>2.3</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.3000000000000042</v>
       </c>
       <c r="AM16" t="n">
         <v>36.2</v>
@@ -9117,7 +9117,7 @@
         <v>8.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.699999999999996</v>
+        <v>3.799999999999994</v>
       </c>
       <c r="AP16" t="n">
         <v>28.7</v>
@@ -9126,7 +9126,7 @@
         <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.799999999999983</v>
+        <v>2.299999999999983</v>
       </c>
       <c r="AS16" t="n">
         <v>211.2</v>
@@ -9144,7 +9144,7 @@
         <v>0.6</v>
       </c>
       <c r="AX16" t="n">
-        <v>2.799999999999981</v>
+        <v>1.999999999999972</v>
       </c>
       <c r="AY16" t="n">
         <v>81.3</v>
@@ -9153,7 +9153,7 @@
         <v>7.1</v>
       </c>
       <c r="BA16" t="n">
-        <v>19.5</v>
+        <v>15.6</v>
       </c>
       <c r="BB16" t="n">
         <v>105.7</v>
@@ -9171,7 +9171,7 @@
         <v>0.7</v>
       </c>
       <c r="BG16" t="n">
-        <v>3.699999999999999</v>
+        <v>3.300000000000007</v>
       </c>
       <c r="BH16" t="n">
         <v>102.9</v>
@@ -9180,7 +9180,7 @@
         <v>7.2</v>
       </c>
       <c r="BJ16" t="n">
-        <v>270.3</v>
+        <v>251.7000000000001</v>
       </c>
       <c r="BK16" t="n">
         <v>1292</v>
@@ -9216,7 +9216,7 @@
         <v>6.7</v>
       </c>
       <c r="BV16" t="n">
-        <v>9.699999999999932</v>
+        <v>7.599999999999909</v>
       </c>
       <c r="BW16" t="n">
         <v>630.2</v>
@@ -9252,7 +9252,7 @@
         <v>5.4</v>
       </c>
       <c r="CH16" t="n">
-        <v>75.40000000000003</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="CI16" t="n">
         <v>345.2</v>
@@ -9297,7 +9297,7 @@
         <v>-8.6</v>
       </c>
       <c r="CW16" t="n">
-        <v>20.89999999999981</v>
+        <v>19.19999999999971</v>
       </c>
       <c r="CX16" t="n">
         <v>800.3</v>
@@ -9306,7 +9306,7 @@
         <v>2</v>
       </c>
       <c r="CZ16" t="n">
-        <v>4.600000000000023</v>
+        <v>3.500000000000043</v>
       </c>
       <c r="DA16" t="n">
         <v>175</v>
@@ -9333,7 +9333,7 @@
         <v>-1.2</v>
       </c>
       <c r="DI16" t="n">
-        <v>6.200000000000003</v>
+        <v>5.900000000000006</v>
       </c>
       <c r="DJ16" t="n">
         <v>38.4</v>
@@ -9360,7 +9360,7 @@
         <v>-1.3</v>
       </c>
       <c r="DR16" t="n">
-        <v>16.10000000000008</v>
+        <v>11.20000000000016</v>
       </c>
       <c r="DS16" t="n">
         <v>774.9</v>
@@ -9369,7 +9369,7 @@
         <v>8.9</v>
       </c>
       <c r="DU16" t="n">
-        <v>1.899999999999991</v>
+        <v>0.600000000000001</v>
       </c>
       <c r="DV16" t="n">
         <v>70.09999999999999</v>
@@ -9378,7 +9378,7 @@
         <v>5.6</v>
       </c>
       <c r="DX16" t="n">
-        <v>8.799999999999955</v>
+        <v>7.299999999999919</v>
       </c>
       <c r="DY16" t="n">
         <v>302.6</v>
@@ -9387,7 +9387,7 @@
         <v>7.4</v>
       </c>
       <c r="EA16" t="n">
-        <v>47.70000000000002</v>
+        <v>38.30000000000004</v>
       </c>
       <c r="EB16" t="n">
         <v>505.6</v>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>128.9000000000001</v>
+        <v>108.5000000000001</v>
       </c>
       <c r="C17" t="n">
         <v>783.9</v>
@@ -9556,7 +9556,7 @@
         <v>3.4</v>
       </c>
       <c r="E17" t="n">
-        <v>36.59999999999997</v>
+        <v>29.69999999999994</v>
       </c>
       <c r="F17" t="n">
         <v>226.2</v>
@@ -9565,7 +9565,7 @@
         <v>0.8</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>4.500000000000007</v>
       </c>
       <c r="I17" t="n">
         <v>39.2</v>
@@ -9574,7 +9574,7 @@
         <v>5.1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L17" t="n">
         <v>0.7</v>
@@ -9583,7 +9583,7 @@
         <v>-12.5</v>
       </c>
       <c r="N17" t="n">
-        <v>74.39999999999998</v>
+        <v>70.10000000000002</v>
       </c>
       <c r="O17" t="n">
         <v>503.9</v>
@@ -9592,7 +9592,7 @@
         <v>3.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2503.500000000002</v>
+        <v>2176.800000000003</v>
       </c>
       <c r="R17" t="n">
         <v>15603</v>
@@ -9601,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>206.8</v>
+        <v>186.9999999999999</v>
       </c>
       <c r="U17" t="n">
         <v>1244.5</v>
@@ -9619,7 +9619,7 @@
         <v>6.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>109.6999999999999</v>
+        <v>97.59999999999989</v>
       </c>
       <c r="AA17" t="n">
         <v>731.4</v>
@@ -9628,7 +9628,7 @@
         <v>4.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>27.19999999999999</v>
+        <v>26.6</v>
       </c>
       <c r="AD17" t="n">
         <v>167.7</v>
@@ -9637,7 +9637,7 @@
         <v>3.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>26.19999999999999</v>
+        <v>12.59999999999997</v>
       </c>
       <c r="AG17" t="n">
         <v>171.7</v>
@@ -9646,7 +9646,7 @@
         <v>4.1</v>
       </c>
       <c r="AI17" t="n">
-        <v>2831.900000000001</v>
+        <v>2472.499999999999</v>
       </c>
       <c r="AJ17" t="n">
         <v>17640.4</v>
@@ -9655,7 +9655,7 @@
         <v>2</v>
       </c>
       <c r="AL17" t="n">
-        <v>7.200000000000003</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="AM17" t="n">
         <v>44.3</v>
@@ -9673,7 +9673,7 @@
         <v>13.3</v>
       </c>
       <c r="AR17" t="n">
-        <v>40.80000000000001</v>
+        <v>38.00000000000003</v>
       </c>
       <c r="AS17" t="n">
         <v>257.2</v>
@@ -9682,7 +9682,7 @@
         <v>6.6</v>
       </c>
       <c r="AU17" t="n">
-        <v>61.59999999999997</v>
+        <v>55.29999999999996</v>
       </c>
       <c r="AV17" t="n">
         <v>374.8</v>
@@ -9691,7 +9691,7 @@
         <v>-0.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>14.20000000000002</v>
       </c>
       <c r="AY17" t="n">
         <v>100.2</v>
@@ -9709,7 +9709,7 @@
         <v>0.9</v>
       </c>
       <c r="BD17" t="n">
-        <v>84.69999999999993</v>
+        <v>79.89999999999986</v>
       </c>
       <c r="BE17" t="n">
         <v>516.3</v>
@@ -9718,7 +9718,7 @@
         <v>1.1</v>
       </c>
       <c r="BG17" t="n">
-        <v>20.59999999999999</v>
+        <v>16.89999999999999</v>
       </c>
       <c r="BH17" t="n">
         <v>124.6</v>
@@ -9745,7 +9745,7 @@
         <v>3.8</v>
       </c>
       <c r="BP17" t="n">
-        <v>130.9</v>
+        <v>119.6</v>
       </c>
       <c r="BQ17" t="n">
         <v>735.7</v>
@@ -9754,7 +9754,7 @@
         <v>0.3</v>
       </c>
       <c r="BS17" t="n">
-        <v>18.89999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="BT17" t="n">
         <v>115.5</v>
@@ -9763,7 +9763,7 @@
         <v>6.3</v>
       </c>
       <c r="BV17" t="n">
-        <v>95.10000000000002</v>
+        <v>85.40000000000009</v>
       </c>
       <c r="BW17" t="n">
         <v>769.6</v>
@@ -9772,7 +9772,7 @@
         <v>39.9</v>
       </c>
       <c r="BY17" t="n">
-        <v>55.5</v>
+        <v>53.80000000000001</v>
       </c>
       <c r="BZ17" t="n">
         <v>529.6</v>
@@ -9781,7 +9781,7 @@
         <v>63.9</v>
       </c>
       <c r="CB17" t="n">
-        <v>188</v>
+        <v>159.8</v>
       </c>
       <c r="CC17" t="n">
         <v>1220.9</v>
@@ -9790,7 +9790,7 @@
         <v>-2</v>
       </c>
       <c r="CE17" t="n">
-        <v>40.09999999999999</v>
+        <v>33.59999999999999</v>
       </c>
       <c r="CF17" t="n">
         <v>225.8</v>
@@ -9817,7 +9817,7 @@
         <v>-17.3</v>
       </c>
       <c r="CN17" t="n">
-        <v>63.69999999999999</v>
+        <v>57.99999999999994</v>
       </c>
       <c r="CO17" t="n">
         <v>385.7</v>
@@ -9826,7 +9826,7 @@
         <v>6.2</v>
       </c>
       <c r="CQ17" t="n">
-        <v>59.39999999999998</v>
+        <v>55.19999999999993</v>
       </c>
       <c r="CR17" t="n">
         <v>374.4</v>
@@ -9835,7 +9835,7 @@
         <v>5.1</v>
       </c>
       <c r="CT17" t="n">
-        <v>229.3</v>
+        <v>150.0999999999998</v>
       </c>
       <c r="CU17" t="n">
         <v>1492.6</v>
@@ -9844,7 +9844,7 @@
         <v>-5.3</v>
       </c>
       <c r="CW17" t="n">
-        <v>161.3000000000001</v>
+        <v>140.4000000000003</v>
       </c>
       <c r="CX17" t="n">
         <v>974</v>
@@ -9853,7 +9853,7 @@
         <v>0.9</v>
       </c>
       <c r="CZ17" t="n">
-        <v>31.29999999999998</v>
+        <v>26.69999999999996</v>
       </c>
       <c r="DA17" t="n">
         <v>208.1</v>
@@ -9862,7 +9862,7 @@
         <v>-2.3</v>
       </c>
       <c r="DC17" t="n">
-        <v>49.60000000000002</v>
+        <v>43.70000000000005</v>
       </c>
       <c r="DD17" t="n">
         <v>333.2</v>
@@ -9871,7 +9871,7 @@
         <v>3</v>
       </c>
       <c r="DF17" t="n">
-        <v>233.5</v>
+        <v>210.6</v>
       </c>
       <c r="DG17" t="n">
         <v>1267.7</v>
@@ -9889,7 +9889,7 @@
         <v>29.4</v>
       </c>
       <c r="DL17" t="n">
-        <v>107</v>
+        <v>95.39999999999991</v>
       </c>
       <c r="DM17" t="n">
         <v>671.1</v>
@@ -9898,7 +9898,7 @@
         <v>6.1</v>
       </c>
       <c r="DO17" t="n">
-        <v>42.80000000000001</v>
+        <v>39.70000000000005</v>
       </c>
       <c r="DP17" t="n">
         <v>268.6</v>
@@ -9907,7 +9907,7 @@
         <v>-0.8</v>
       </c>
       <c r="DR17" t="n">
-        <v>152.0999999999999</v>
+        <v>135.9999999999998</v>
       </c>
       <c r="DS17" t="n">
         <v>946.8</v>
@@ -9916,7 +9916,7 @@
         <v>8.5</v>
       </c>
       <c r="DU17" t="n">
-        <v>13.90000000000001</v>
+        <v>12.00000000000002</v>
       </c>
       <c r="DV17" t="n">
         <v>86.59999999999999</v>
@@ -9925,7 +9925,7 @@
         <v>5</v>
       </c>
       <c r="DX17" t="n">
-        <v>51.90000000000003</v>
+        <v>43.10000000000007</v>
       </c>
       <c r="DY17" t="n">
         <v>368.6</v>
@@ -9934,7 +9934,7 @@
         <v>5.9</v>
       </c>
       <c r="EA17" t="n">
-        <v>111.4</v>
+        <v>63.69999999999999</v>
       </c>
       <c r="EB17" t="n">
         <v>623.1</v>
@@ -9943,7 +9943,7 @@
         <v>0.2</v>
       </c>
       <c r="ED17" t="n">
-        <v>15.89999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="EE17" t="n">
         <v>93.8</v>
@@ -10121,7 +10121,7 @@
         <v>2.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="L18" t="n">
         <v>0.7</v>
@@ -10211,7 +10211,7 @@
         <v>9.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>23.5</v>
+        <v>21.49999999999999</v>
       </c>
       <c r="AP18" t="n">
         <v>42.4</v>
@@ -10283,7 +10283,7 @@
         <v>-5.1</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.599999999999966</v>
+        <v>1.299999999999955</v>
       </c>
       <c r="BN18" t="n">
         <v>240.9</v>
@@ -10355,7 +10355,7 @@
         <v>-7.7</v>
       </c>
       <c r="CK18" t="n">
-        <v>4.799999999999955</v>
+        <v>1.099999999999945</v>
       </c>
       <c r="CL18" t="n">
         <v>256.5</v>
@@ -10659,7 +10659,7 @@
         <v>0.8</v>
       </c>
       <c r="H19" t="n">
-        <v>6.199999999999996</v>
+        <v>5.29999999999999</v>
       </c>
       <c r="I19" t="n">
         <v>53.5</v>
@@ -10677,7 +10677,7 @@
         <v>-12.5</v>
       </c>
       <c r="N19" t="n">
-        <v>10.09999999999991</v>
+        <v>7.19999999999982</v>
       </c>
       <c r="O19" t="n">
         <v>668.1</v>
@@ -10686,7 +10686,7 @@
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>214.8000000000029</v>
+        <v>95.60000000000761</v>
       </c>
       <c r="R19" t="n">
         <v>20769.1</v>
@@ -10704,7 +10704,7 @@
         <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>13.8</v>
+        <v>12.09999999999998</v>
       </c>
       <c r="X19" t="n">
         <v>126</v>
@@ -10713,7 +10713,7 @@
         <v>6.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>130.3</v>
+        <v>105.7999999999999</v>
       </c>
       <c r="AA19" t="n">
         <v>979.2</v>
@@ -10722,7 +10722,7 @@
         <v>3.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.199999999999982</v>
+        <v>0.9999999999999609</v>
       </c>
       <c r="AD19" t="n">
         <v>223.3</v>
@@ -10731,7 +10731,7 @@
         <v>2.6</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.599999999999998</v>
+        <v>0.9999999999999754</v>
       </c>
       <c r="AG19" t="n">
         <v>230.1</v>
@@ -10740,7 +10740,7 @@
         <v>5.6</v>
       </c>
       <c r="AI19" t="n">
-        <v>202.4000000000051</v>
+        <v>67.100000000009</v>
       </c>
       <c r="AJ19" t="n">
         <v>23539.6</v>
@@ -10749,7 +10749,7 @@
         <v>1.9</v>
       </c>
       <c r="AL19" t="n">
-        <v>1.400000000000013</v>
+        <v>0.9000000000000201</v>
       </c>
       <c r="AM19" t="n">
         <v>59.9</v>
@@ -10776,7 +10776,7 @@
         <v>7</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.399999999999977</v>
+        <v>0.8999999999999275</v>
       </c>
       <c r="AV19" t="n">
         <v>509.3</v>
@@ -10794,7 +10794,7 @@
         <v>5.6</v>
       </c>
       <c r="BA19" t="n">
-        <v>20.30000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="BB19" t="n">
         <v>149.9</v>
@@ -10803,7 +10803,7 @@
         <v>-2.7</v>
       </c>
       <c r="BD19" t="n">
-        <v>84.29999999999995</v>
+        <v>78.29999999999984</v>
       </c>
       <c r="BE19" t="n">
         <v>694.7</v>
@@ -10821,7 +10821,7 @@
         <v>4.7</v>
       </c>
       <c r="BJ19" t="n">
-        <v>26.80000000000018</v>
+        <v>8.700000000000099</v>
       </c>
       <c r="BK19" t="n">
         <v>2062.5</v>
@@ -10839,7 +10839,7 @@
         <v>2.6</v>
       </c>
       <c r="BP19" t="n">
-        <v>125.1</v>
+        <v>98.6999999999999</v>
       </c>
       <c r="BQ19" t="n">
         <v>1016</v>
@@ -10875,7 +10875,7 @@
         <v>63.8</v>
       </c>
       <c r="CB19" t="n">
-        <v>208.7</v>
+        <v>170.4</v>
       </c>
       <c r="CC19" t="n">
         <v>1639.5</v>
@@ -10902,7 +10902,7 @@
         <v>-5.2</v>
       </c>
       <c r="CK19" t="n">
-        <v>51.19999999999999</v>
+        <v>46.40000000000003</v>
       </c>
       <c r="CL19" t="n">
         <v>303.9</v>
@@ -10929,7 +10929,7 @@
         <v>4.1</v>
       </c>
       <c r="CT19" t="n">
-        <v>333.4000000000001</v>
+        <v>184.3</v>
       </c>
       <c r="CU19" t="n">
         <v>2121.6</v>
@@ -10947,7 +10947,7 @@
         <v>1.3</v>
       </c>
       <c r="CZ19" t="n">
-        <v>38.39999999999998</v>
+        <v>28.59999999999993</v>
       </c>
       <c r="DA19" t="n">
         <v>276.1</v>
@@ -10965,7 +10965,7 @@
         <v>4.3</v>
       </c>
       <c r="DF19" t="n">
-        <v>230.3999999999999</v>
+        <v>211.8999999999999</v>
       </c>
       <c r="DG19" t="n">
         <v>1740.1</v>
@@ -10974,7 +10974,7 @@
         <v>-2.2</v>
       </c>
       <c r="DI19" t="n">
-        <v>6.200000000000003</v>
+        <v>2.300000000000004</v>
       </c>
       <c r="DJ19" t="n">
         <v>66.3</v>
@@ -10992,7 +10992,7 @@
         <v>5.2</v>
       </c>
       <c r="DO19" t="n">
-        <v>38.80000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="DP19" t="n">
         <v>351.2</v>
@@ -11010,7 +11010,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="DU19" t="n">
-        <v>0.6999999999999904</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="DV19" t="n">
         <v>120</v>
@@ -11019,7 +11019,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DX19" t="n">
-        <v>8.299999999999955</v>
+        <v>1.199999999999982</v>
       </c>
       <c r="DY19" t="n">
         <v>487.9</v>
@@ -11028,7 +11028,7 @@
         <v>6.3</v>
       </c>
       <c r="EA19" t="n">
-        <v>85.79999999999995</v>
+        <v>45.5999999999999</v>
       </c>
       <c r="EB19" t="n">
         <v>744</v>
@@ -11037,7 +11037,7 @@
         <v>-3.8</v>
       </c>
       <c r="ED19" t="n">
-        <v>16.59999999999999</v>
+        <v>14.19999999999998</v>
       </c>
       <c r="EE19" t="n">
         <v>130.6</v>
@@ -11188,7 +11188,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>113.0999999999999</v>
+        <v>97.59999999999989</v>
       </c>
       <c r="C20" t="n">
         <v>1175.3</v>
@@ -11197,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>31.39999999999998</v>
+        <v>23.5</v>
       </c>
       <c r="F20" t="n">
         <v>336.1</v>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>85.89999999999998</v>
+        <v>75.80000000000007</v>
       </c>
       <c r="O20" t="n">
         <v>761.4</v>
@@ -11233,7 +11233,7 @@
         <v>4.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2408.900000000001</v>
+        <v>2194.099999999998</v>
       </c>
       <c r="R20" t="n">
         <v>23552.8</v>
@@ -11242,7 +11242,7 @@
         <v>0.6</v>
       </c>
       <c r="T20" t="n">
-        <v>194.5999999999999</v>
+        <v>152.5999999999999</v>
       </c>
       <c r="U20" t="n">
         <v>1857.7</v>
@@ -11269,7 +11269,7 @@
         <v>2.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>30.10000000000002</v>
+        <v>27.90000000000004</v>
       </c>
       <c r="AD20" t="n">
         <v>253.1</v>
@@ -11278,7 +11278,7 @@
         <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.599999999999962</v>
+        <v>0.9999999999999638</v>
       </c>
       <c r="AG20" t="n">
         <v>262.7</v>
@@ -11287,7 +11287,7 @@
         <v>6.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>2769.799999999999</v>
+        <v>2567.399999999994</v>
       </c>
       <c r="AJ20" t="n">
         <v>26705.8</v>
@@ -11296,7 +11296,7 @@
         <v>1.7</v>
       </c>
       <c r="AL20" t="n">
-        <v>8.199999999999989</v>
+        <v>6.799999999999976</v>
       </c>
       <c r="AM20" t="n">
         <v>68.40000000000001</v>
@@ -11314,7 +11314,7 @@
         <v>10.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>35</v>
+        <v>33.60000000000002</v>
       </c>
       <c r="AS20" t="n">
         <v>400.1</v>
@@ -11323,7 +11323,7 @@
         <v>7.3</v>
       </c>
       <c r="AU20" t="n">
-        <v>72.60000000000002</v>
+        <v>66.20000000000005</v>
       </c>
       <c r="AV20" t="n">
         <v>586.7</v>
@@ -11332,7 +11332,7 @@
         <v>1.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>17.29999999999998</v>
+        <v>16.79999999999997</v>
       </c>
       <c r="AY20" t="n">
         <v>153.2</v>
@@ -11359,7 +11359,7 @@
         <v>2.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>21.19999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="BH20" t="n">
         <v>191.8</v>
@@ -11368,7 +11368,7 @@
         <v>5.2</v>
       </c>
       <c r="BJ20" t="n">
-        <v>231.4000000000001</v>
+        <v>204.5999999999999</v>
       </c>
       <c r="BK20" t="n">
         <v>2357.4</v>
@@ -11377,7 +11377,7 @@
         <v>-5</v>
       </c>
       <c r="BM20" t="n">
-        <v>35.69999999999999</v>
+        <v>35.29999999999995</v>
       </c>
       <c r="BN20" t="n">
         <v>314</v>
@@ -11395,7 +11395,7 @@
         <v>0.7</v>
       </c>
       <c r="BS20" t="n">
-        <v>2.500000000000032</v>
+        <v>2.000000000000064</v>
       </c>
       <c r="BT20" t="n">
         <v>175.4</v>
@@ -11431,7 +11431,7 @@
         <v>-1</v>
       </c>
       <c r="CE20" t="n">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="CF20" t="n">
         <v>349.7</v>
@@ -11458,7 +11458,7 @@
         <v>-16.3</v>
       </c>
       <c r="CN20" t="n">
-        <v>59.69999999999993</v>
+        <v>50.2999999999999</v>
       </c>
       <c r="CO20" t="n">
         <v>569</v>
@@ -11467,7 +11467,7 @@
         <v>4.4</v>
       </c>
       <c r="CQ20" t="n">
-        <v>54.79999999999995</v>
+        <v>54.69999999999997</v>
       </c>
       <c r="CR20" t="n">
         <v>550.2</v>
@@ -11485,7 +11485,7 @@
         <v>-4.3</v>
       </c>
       <c r="CW20" t="n">
-        <v>127.4000000000001</v>
+        <v>114.6</v>
       </c>
       <c r="CX20" t="n">
         <v>1451.3</v>
@@ -11503,7 +11503,7 @@
         <v>-3.2</v>
       </c>
       <c r="DC20" t="n">
-        <v>4.599999999999966</v>
+        <v>1.599999999999916</v>
       </c>
       <c r="DD20" t="n">
         <v>500.8</v>
@@ -11530,7 +11530,7 @@
         <v>29.7</v>
       </c>
       <c r="DL20" t="n">
-        <v>99.60000000000002</v>
+        <v>59.79999999999999</v>
       </c>
       <c r="DM20" t="n">
         <v>971.5</v>
@@ -11548,7 +11548,7 @@
         <v>1.7</v>
       </c>
       <c r="DR20" t="n">
-        <v>159.2</v>
+        <v>144.0000000000002</v>
       </c>
       <c r="DS20" t="n">
         <v>1450.2</v>
@@ -11557,7 +11557,7 @@
         <v>7.9</v>
       </c>
       <c r="DU20" t="n">
-        <v>3.4</v>
+        <v>2.70000000000001</v>
       </c>
       <c r="DV20" t="n">
         <v>137.9</v>
@@ -11575,7 +11575,7 @@
         <v>6.1</v>
       </c>
       <c r="EA20" t="n">
-        <v>101.3</v>
+        <v>15.50000000000004</v>
       </c>
       <c r="EB20" t="n">
         <v>833.7</v>
@@ -11798,7 +11798,7 @@
         <v>0.3</v>
       </c>
       <c r="W21" t="n">
-        <v>7.89999999999997</v>
+        <v>7.799999999999962</v>
       </c>
       <c r="X21" t="n">
         <v>156.3</v>
@@ -11825,7 +11825,7 @@
         <v>1.1</v>
       </c>
       <c r="AF21" t="n">
-        <v>30.70000000000005</v>
+        <v>28.10000000000009</v>
       </c>
       <c r="AG21" t="n">
         <v>293.4</v>
@@ -11897,7 +11897,7 @@
         <v>-0.1</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.999999999999886</v>
+        <v>1.999999999999772</v>
       </c>
       <c r="BE21" t="n">
         <v>870.9</v>
@@ -11933,7 +11933,7 @@
         <v>1.1</v>
       </c>
       <c r="BP21" t="n">
-        <v>131.8</v>
+        <v>113.8000000000001</v>
       </c>
       <c r="BQ21" t="n">
         <v>1289.9</v>
@@ -11951,7 +11951,7 @@
         <v>4.9</v>
       </c>
       <c r="BV21" t="n">
-        <v>15.10000000000009</v>
+        <v>12.90000000000009</v>
       </c>
       <c r="BW21" t="n">
         <v>1351.3</v>
@@ -11960,7 +11960,7 @@
         <v>43.2</v>
       </c>
       <c r="BY21" t="n">
-        <v>12.70000000000005</v>
+        <v>12.10000000000003</v>
       </c>
       <c r="BZ21" t="n">
         <v>942.3</v>
@@ -11969,7 +11969,7 @@
         <v>70.09999999999999</v>
       </c>
       <c r="CB21" t="n">
-        <v>3.500000000000199</v>
+        <v>3.400000000000176</v>
       </c>
       <c r="CC21" t="n">
         <v>2004.8</v>
@@ -11987,7 +11987,7 @@
         <v>4</v>
       </c>
       <c r="CH21" t="n">
-        <v>75.39999999999998</v>
+        <v>74.40000000000009</v>
       </c>
       <c r="CI21" t="n">
         <v>696.2</v>
@@ -11996,7 +11996,7 @@
         <v>-6.4</v>
       </c>
       <c r="CK21" t="n">
-        <v>6.000000000000064</v>
+        <v>1.000000000000064</v>
       </c>
       <c r="CL21" t="n">
         <v>390.9</v>
@@ -12041,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="CZ21" t="n">
-        <v>36.30000000000001</v>
+        <v>36.19999999999999</v>
       </c>
       <c r="DA21" t="n">
         <v>348.8</v>
@@ -12050,7 +12050,7 @@
         <v>-3.7</v>
       </c>
       <c r="DC21" t="n">
-        <v>53.39999999999998</v>
+        <v>48.80000000000001</v>
       </c>
       <c r="DD21" t="n">
         <v>555.8</v>
@@ -12059,7 +12059,7 @@
         <v>4.4</v>
       </c>
       <c r="DF21" t="n">
-        <v>253.2000000000003</v>
+        <v>226.6000000000002</v>
       </c>
       <c r="DG21" t="n">
         <v>2212.6</v>
@@ -12068,7 +12068,7 @@
         <v>-2.4</v>
       </c>
       <c r="DI21" t="n">
-        <v>6.599999999999994</v>
+        <v>3.299999999999997</v>
       </c>
       <c r="DJ21" t="n">
         <v>85.40000000000001</v>
@@ -12086,7 +12086,7 @@
         <v>4.7</v>
       </c>
       <c r="DO21" t="n">
-        <v>34.30000000000001</v>
+        <v>18.30000000000007</v>
       </c>
       <c r="DP21" t="n">
         <v>432.3</v>
@@ -12104,7 +12104,7 @@
         <v>7.3</v>
       </c>
       <c r="DU21" t="n">
-        <v>17.10000000000002</v>
+        <v>13.70000000000002</v>
       </c>
       <c r="DV21" t="n">
         <v>156.4</v>
@@ -12113,7 +12113,7 @@
         <v>8.1</v>
       </c>
       <c r="DX21" t="n">
-        <v>69.70000000000005</v>
+        <v>65.89999999999998</v>
       </c>
       <c r="DY21" t="n">
         <v>631.5</v>
@@ -12131,7 +12131,7 @@
         <v>-8</v>
       </c>
       <c r="ED21" t="n">
-        <v>16</v>
+        <v>15.19999999999998</v>
       </c>
       <c r="EE21" t="n">
         <v>162.8</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.5999999999999</v>
+        <v>93.29999999999968</v>
       </c>
       <c r="C22" t="n">
         <v>1405.6</v>
@@ -12291,7 +12291,7 @@
         <v>1.2</v>
       </c>
       <c r="E22" t="n">
-        <v>43.09999999999997</v>
+        <v>15.49999999999995</v>
       </c>
       <c r="F22" t="n">
         <v>394.5</v>
@@ -12300,7 +12300,7 @@
         <v>0.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.199999999999999</v>
+        <v>2.599999999999997</v>
       </c>
       <c r="I22" t="n">
         <v>74.5</v>
@@ -12309,7 +12309,7 @@
         <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="L22" t="n">
         <v>0.9</v>
@@ -12327,7 +12327,7 @@
         <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1507.299999999999</v>
+        <v>1218.2</v>
       </c>
       <c r="R22" t="n">
         <v>28512.1</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>152.3999999999996</v>
+        <v>143.6999999999993</v>
       </c>
       <c r="U22" t="n">
         <v>2248.1</v>
@@ -12345,7 +12345,7 @@
         <v>0.4</v>
       </c>
       <c r="W22" t="n">
-        <v>8.60000000000003</v>
+        <v>0.7000000000000597</v>
       </c>
       <c r="X22" t="n">
         <v>169.1</v>
@@ -12381,7 +12381,7 @@
         <v>5.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1694.099999999998</v>
+        <v>1393.699999999996</v>
       </c>
       <c r="AJ22" t="n">
         <v>32436.1</v>
@@ -12390,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="AL22" t="n">
-        <v>3.799999999999981</v>
+        <v>1.19999999999996</v>
       </c>
       <c r="AM22" t="n">
         <v>88.90000000000001</v>
@@ -12399,7 +12399,7 @@
         <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.499999999999998</v>
+        <v>6.299999999999995</v>
       </c>
       <c r="AP22" t="n">
         <v>47.8</v>
@@ -12408,7 +12408,7 @@
         <v>6</v>
       </c>
       <c r="AR22" t="n">
-        <v>37</v>
+        <v>9.199999999999989</v>
       </c>
       <c r="AS22" t="n">
         <v>466.3</v>
@@ -12426,7 +12426,7 @@
         <v>-0.2</v>
       </c>
       <c r="AX22" t="n">
-        <v>15.20000000000002</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
         <v>191</v>
@@ -12435,7 +12435,7 @@
         <v>4.3</v>
       </c>
       <c r="BA22" t="n">
-        <v>12.80000000000002</v>
+        <v>6.30000000000002</v>
       </c>
       <c r="BB22" t="n">
         <v>208.2</v>
@@ -12444,7 +12444,7 @@
         <v>-0.9</v>
       </c>
       <c r="BD22" t="n">
-        <v>42.60000000000005</v>
+        <v>38.60000000000016</v>
       </c>
       <c r="BE22" t="n">
         <v>959.5</v>
@@ -12453,7 +12453,7 @@
         <v>1.3</v>
       </c>
       <c r="BG22" t="n">
-        <v>15.90000000000001</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="BH22" t="n">
         <v>238.1</v>
@@ -12462,7 +12462,7 @@
         <v>5.5</v>
       </c>
       <c r="BJ22" t="n">
-        <v>316.7000000000003</v>
+        <v>193.8000000000007</v>
       </c>
       <c r="BK22" t="n">
         <v>2888.3</v>
@@ -12471,7 +12471,7 @@
         <v>-5.8</v>
       </c>
       <c r="BM22" t="n">
-        <v>32.79999999999996</v>
+        <v>24.09999999999992</v>
       </c>
       <c r="BN22" t="n">
         <v>388.7</v>
@@ -12489,7 +12489,7 @@
         <v>-0.1</v>
       </c>
       <c r="BS22" t="n">
-        <v>21.50000000000003</v>
+        <v>20.10000000000005</v>
       </c>
       <c r="BT22" t="n">
         <v>217.5</v>
@@ -12498,7 +12498,7 @@
         <v>4.2</v>
       </c>
       <c r="BV22" t="n">
-        <v>93.09999999999981</v>
+        <v>77.99999999999972</v>
       </c>
       <c r="BW22" t="n">
         <v>1471.3</v>
@@ -12507,7 +12507,7 @@
         <v>38.5</v>
       </c>
       <c r="BY22" t="n">
-        <v>55.69999999999996</v>
+        <v>42.99999999999991</v>
       </c>
       <c r="BZ22" t="n">
         <v>1015.7</v>
@@ -12516,7 +12516,7 @@
         <v>61.7</v>
       </c>
       <c r="CB22" t="n">
-        <v>112.8999999999996</v>
+        <v>109.3999999999994</v>
       </c>
       <c r="CC22" t="n">
         <v>2197.7</v>
@@ -12525,7 +12525,7 @@
         <v>-4</v>
       </c>
       <c r="CE22" t="n">
-        <v>23.69999999999999</v>
+        <v>17.39999999999998</v>
       </c>
       <c r="CF22" t="n">
         <v>415.5</v>
@@ -12543,7 +12543,7 @@
         <v>-6.9</v>
       </c>
       <c r="CK22" t="n">
-        <v>52.29999999999995</v>
+        <v>46.29999999999988</v>
       </c>
       <c r="CL22" t="n">
         <v>438.3</v>
@@ -12552,7 +12552,7 @@
         <v>-17.6</v>
       </c>
       <c r="CN22" t="n">
-        <v>31.19999999999993</v>
+        <v>27.09999999999979</v>
       </c>
       <c r="CO22" t="n">
         <v>683.9</v>
@@ -12561,7 +12561,7 @@
         <v>2.3</v>
       </c>
       <c r="CQ22" t="n">
-        <v>42.79999999999998</v>
+        <v>34.99999999999991</v>
       </c>
       <c r="CR22" t="n">
         <v>663.6</v>
@@ -12570,7 +12570,7 @@
         <v>2.2</v>
       </c>
       <c r="CT22" t="n">
-        <v>185.6999999999998</v>
+        <v>119.6999999999993</v>
       </c>
       <c r="CU22" t="n">
         <v>2896.5</v>
@@ -12579,7 +12579,7 @@
         <v>-2.4</v>
       </c>
       <c r="CW22" t="n">
-        <v>102.3999999999999</v>
+        <v>75.10000000000002</v>
       </c>
       <c r="CX22" t="n">
         <v>1738.8</v>
@@ -12615,7 +12615,7 @@
         <v>-2.7</v>
       </c>
       <c r="DI22" t="n">
-        <v>9.000000000000016</v>
+        <v>2.400000000000022</v>
       </c>
       <c r="DJ22" t="n">
         <v>93.7</v>
@@ -12624,7 +12624,7 @@
         <v>26.5</v>
       </c>
       <c r="DL22" t="n">
-        <v>71.30000000000031</v>
+        <v>67.90000000000043</v>
       </c>
       <c r="DM22" t="n">
         <v>1176.7</v>
@@ -12633,7 +12633,7 @@
         <v>4.4</v>
       </c>
       <c r="DO22" t="n">
-        <v>44.5</v>
+        <v>10.19999999999999</v>
       </c>
       <c r="DP22" t="n">
         <v>481.4</v>
@@ -12642,7 +12642,7 @@
         <v>-0.7</v>
       </c>
       <c r="DR22" t="n">
-        <v>96.30000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="DS22" t="n">
         <v>1791.2</v>
@@ -12669,7 +12669,7 @@
         <v>5</v>
       </c>
       <c r="EA22" t="n">
-        <v>85.9999999999998</v>
+        <v>9.09999999999971</v>
       </c>
       <c r="EB22" t="n">
         <v>1005.1</v>
@@ -12865,7 +12865,7 @@
         <v>-10</v>
       </c>
       <c r="N23" t="n">
-        <v>153.9</v>
+        <v>84.40000000000015</v>
       </c>
       <c r="O23" t="n">
         <v>1060.7</v>
@@ -12901,7 +12901,7 @@
         <v>-0.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>50.99999999999989</v>
+        <v>9.799999999999692</v>
       </c>
       <c r="AA23" t="n">
         <v>1527.8</v>
@@ -12937,7 +12937,7 @@
         <v>0.6</v>
       </c>
       <c r="AL23" t="n">
-        <v>14.3</v>
+        <v>10.50000000000002</v>
       </c>
       <c r="AM23" t="n">
         <v>101.6</v>
@@ -12973,7 +12973,7 @@
         <v>-0.4</v>
       </c>
       <c r="AX23" t="n">
-        <v>30.2</v>
+        <v>14.99999999999998</v>
       </c>
       <c r="AY23" t="n">
         <v>219.3</v>
@@ -13018,7 +13018,7 @@
         <v>-3.8</v>
       </c>
       <c r="BM23" t="n">
-        <v>71.90000000000001</v>
+        <v>39.10000000000004</v>
       </c>
       <c r="BN23" t="n">
         <v>464.9</v>
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="BS23" t="n">
-        <v>38.7</v>
+        <v>17.19999999999997</v>
       </c>
       <c r="BT23" t="n">
         <v>262.9</v>
@@ -13081,7 +13081,7 @@
         <v>-0.4</v>
       </c>
       <c r="CH23" t="n">
-        <v>40.29999999999995</v>
+        <v>26.49999999999988</v>
       </c>
       <c r="CI23" t="n">
         <v>843.1</v>
@@ -13207,7 +13207,7 @@
         <v>6.3</v>
       </c>
       <c r="DX23" t="n">
-        <v>113.8</v>
+        <v>66.70000000000005</v>
       </c>
       <c r="DY23" t="n">
         <v>799.1</v>
@@ -13376,7 +13376,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.1</v>
+        <v>134.3</v>
       </c>
       <c r="C24" t="n">
         <v>206.5</v>
@@ -13385,7 +13385,7 @@
         <v>-14.2</v>
       </c>
       <c r="E24" t="n">
-        <v>41.7</v>
+        <v>40.39999999999999</v>
       </c>
       <c r="F24" t="n">
         <v>59.8</v>
@@ -13394,7 +13394,7 @@
         <v>-16.9</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>10.6</v>
@@ -13421,7 +13421,7 @@
         <v>-11.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2684.099999999999</v>
+        <v>2108.599999999998</v>
       </c>
       <c r="R24" t="n">
         <v>4192.1</v>
@@ -13430,7 +13430,7 @@
         <v>-12.3</v>
       </c>
       <c r="T24" t="n">
-        <v>219</v>
+        <v>203.6999999999998</v>
       </c>
       <c r="U24" t="n">
         <v>333</v>
@@ -13439,7 +13439,7 @@
         <v>-10.2</v>
       </c>
       <c r="W24" t="n">
-        <v>15.4</v>
+        <v>14.60000000000001</v>
       </c>
       <c r="X24" t="n">
         <v>27.7</v>
@@ -13448,7 +13448,7 @@
         <v>-11.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>117.3</v>
+        <v>66.3000000000001</v>
       </c>
       <c r="AA24" t="n">
         <v>201</v>
@@ -13457,7 +13457,7 @@
         <v>-8.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>29</v>
+        <v>18.59999999999998</v>
       </c>
       <c r="AD24" t="n">
         <v>45.7</v>
@@ -13466,7 +13466,7 @@
         <v>-15.1</v>
       </c>
       <c r="AF24" t="n">
-        <v>31.5</v>
+        <v>24.7</v>
       </c>
       <c r="AG24" t="n">
         <v>42.3</v>
@@ -13475,7 +13475,7 @@
         <v>-18.3</v>
       </c>
       <c r="AI24" t="n">
-        <v>3037.1</v>
+        <v>2372.399999999999</v>
       </c>
       <c r="AJ24" t="n">
         <v>4786.9</v>
@@ -13502,7 +13502,7 @@
         <v>-9.9</v>
       </c>
       <c r="AR24" t="n">
-        <v>42.10000000000001</v>
+        <v>30.80000000000003</v>
       </c>
       <c r="AS24" t="n">
         <v>64.7</v>
@@ -13511,7 +13511,7 @@
         <v>-15</v>
       </c>
       <c r="AU24" t="n">
-        <v>63.59999999999999</v>
+        <v>57.39999999999998</v>
       </c>
       <c r="AV24" t="n">
         <v>109.3</v>
@@ -13529,7 +13529,7 @@
         <v>-13.6</v>
       </c>
       <c r="BA24" t="n">
-        <v>19.1</v>
+        <v>18.60000000000002</v>
       </c>
       <c r="BB24" t="n">
         <v>28.5</v>
@@ -13538,7 +13538,7 @@
         <v>-17.2</v>
       </c>
       <c r="BD24" t="n">
-        <v>92.39999999999998</v>
+        <v>63.49999999999997</v>
       </c>
       <c r="BE24" t="n">
         <v>142</v>
@@ -13547,7 +13547,7 @@
         <v>-12.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>21.3</v>
+        <v>15.3</v>
       </c>
       <c r="BH24" t="n">
         <v>42.3</v>
@@ -13556,7 +13556,7 @@
         <v>-3.9</v>
       </c>
       <c r="BJ24" t="n">
-        <v>266.9</v>
+        <v>98.30000000000027</v>
       </c>
       <c r="BK24" t="n">
         <v>414.6</v>
@@ -13574,7 +13574,7 @@
         <v>-4.5</v>
       </c>
       <c r="BP24" t="n">
-        <v>125.9</v>
+        <v>108</v>
       </c>
       <c r="BQ24" t="n">
         <v>197.4</v>
@@ -13592,7 +13592,7 @@
         <v>-6.7</v>
       </c>
       <c r="BV24" t="n">
-        <v>138.4</v>
+        <v>91.99999999999991</v>
       </c>
       <c r="BW24" t="n">
         <v>244.4</v>
@@ -13601,7 +13601,7 @@
         <v>-5.5</v>
       </c>
       <c r="BY24" t="n">
-        <v>95.89999999999998</v>
+        <v>49.99999999999996</v>
       </c>
       <c r="BZ24" t="n">
         <v>166</v>
@@ -13610,7 +13610,7 @@
         <v>-5.6</v>
       </c>
       <c r="CB24" t="n">
-        <v>216.7</v>
+        <v>173.9999999999998</v>
       </c>
       <c r="CC24" t="n">
         <v>309.4</v>
@@ -13619,7 +13619,7 @@
         <v>-15.9</v>
       </c>
       <c r="CE24" t="n">
-        <v>37.19999999999999</v>
+        <v>30.29999999999998</v>
       </c>
       <c r="CF24" t="n">
         <v>54.3</v>
@@ -13628,7 +13628,7 @@
         <v>-20.6</v>
       </c>
       <c r="CH24" t="n">
-        <v>72.19999999999999</v>
+        <v>31.90000000000004</v>
       </c>
       <c r="CI24" t="n">
         <v>126.8</v>
@@ -13637,7 +13637,7 @@
         <v>-2.1</v>
       </c>
       <c r="CK24" t="n">
-        <v>37.40000000000001</v>
+        <v>9.699999999999964</v>
       </c>
       <c r="CL24" t="n">
         <v>68.8</v>
@@ -13646,7 +13646,7 @@
         <v>-14</v>
       </c>
       <c r="CN24" t="n">
-        <v>65.5</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="CO24" t="n">
         <v>94.09999999999999</v>
@@ -13655,7 +13655,7 @@
         <v>-17.9</v>
       </c>
       <c r="CQ24" t="n">
-        <v>61.59999999999999</v>
+        <v>58.99999999999999</v>
       </c>
       <c r="CR24" t="n">
         <v>87.3</v>
@@ -13664,7 +13664,7 @@
         <v>-19.2</v>
       </c>
       <c r="CT24" t="n">
-        <v>249.7</v>
+        <v>237.3999999999999</v>
       </c>
       <c r="CU24" t="n">
         <v>411.6</v>
@@ -13673,7 +13673,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="CW24" t="n">
-        <v>178.2</v>
+        <v>136.0999999999999</v>
       </c>
       <c r="CX24" t="n">
         <v>254.6</v>
@@ -13682,7 +13682,7 @@
         <v>-14.9</v>
       </c>
       <c r="CZ24" t="n">
-        <v>37.7</v>
+        <v>33</v>
       </c>
       <c r="DA24" t="n">
         <v>58.7</v>
@@ -13691,7 +13691,7 @@
         <v>-12.6</v>
       </c>
       <c r="DC24" t="n">
-        <v>54.90000000000001</v>
+        <v>25.10000000000008</v>
       </c>
       <c r="DD24" t="n">
         <v>104.7</v>
@@ -13700,7 +13700,7 @@
         <v>-11.7</v>
       </c>
       <c r="DF24" t="n">
-        <v>214.5000000000001</v>
+        <v>171.6999999999997</v>
       </c>
       <c r="DG24" t="n">
         <v>350.5</v>
@@ -13709,7 +13709,7 @@
         <v>-10.1</v>
       </c>
       <c r="DI24" t="n">
-        <v>8.099999999999998</v>
+        <v>6.600000000000007</v>
       </c>
       <c r="DJ24" t="n">
         <v>14.2</v>
@@ -13718,7 +13718,7 @@
         <v>-17</v>
       </c>
       <c r="DL24" t="n">
-        <v>114.6</v>
+        <v>92.20000000000022</v>
       </c>
       <c r="DM24" t="n">
         <v>166.6</v>
@@ -13727,7 +13727,7 @@
         <v>-15.3</v>
       </c>
       <c r="DO24" t="n">
-        <v>44.59999999999999</v>
+        <v>43.2</v>
       </c>
       <c r="DP24" t="n">
         <v>68.5</v>
@@ -13736,7 +13736,7 @@
         <v>-14.6</v>
       </c>
       <c r="DR24" t="n">
-        <v>169.2</v>
+        <v>140.1</v>
       </c>
       <c r="DS24" t="n">
         <v>268.4</v>
@@ -13745,7 +13745,7 @@
         <v>-10.7</v>
       </c>
       <c r="DU24" t="n">
-        <v>15.6</v>
+        <v>12.19999999999999</v>
       </c>
       <c r="DV24" t="n">
         <v>24.1</v>
@@ -13763,7 +13763,7 @@
         <v>-7.6</v>
       </c>
       <c r="EA24" t="n">
-        <v>93.79999999999998</v>
+        <v>79.29999999999987</v>
       </c>
       <c r="EB24" t="n">
         <v>165</v>
@@ -13772,7 +13772,7 @@
         <v>-7</v>
       </c>
       <c r="ED24" t="n">
-        <v>16</v>
+        <v>10.90000000000002</v>
       </c>
       <c r="EE24" t="n">
         <v>27.5</v>
@@ -14533,7 +14533,7 @@
         <v>-8.1</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6999999999999904</v>
+        <v>0.1999999999999904</v>
       </c>
       <c r="X26" t="n">
         <v>56.8</v>
@@ -14641,7 +14641,7 @@
         <v>-9.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>21.40000000000001</v>
+        <v>21.20000000000001</v>
       </c>
       <c r="BH26" t="n">
         <v>84</v>
@@ -14659,7 +14659,7 @@
         <v>-11.3</v>
       </c>
       <c r="BM26" t="n">
-        <v>32.79999999999998</v>
+        <v>28.39999999999998</v>
       </c>
       <c r="BN26" t="n">
         <v>137.1</v>
@@ -14731,7 +14731,7 @@
         <v>-4.4</v>
       </c>
       <c r="CK26" t="n">
-        <v>34.59999999999999</v>
+        <v>33</v>
       </c>
       <c r="CL26" t="n">
         <v>146.8</v>
@@ -14758,7 +14758,7 @@
         <v>-14.8</v>
       </c>
       <c r="CT26" t="n">
-        <v>4.299999999999898</v>
+        <v>3.899999999999892</v>
       </c>
       <c r="CU26" t="n">
         <v>897.1</v>
@@ -15026,7 +15026,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>3.5</v>
+        <v>3.000000000000021</v>
       </c>
       <c r="F27" t="n">
         <v>159.5</v>
@@ -15035,7 +15035,7 @@
         <v>-13</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3999999999999986</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="I27" t="n">
         <v>29.4</v>
@@ -15053,7 +15053,7 @@
         <v>-60</v>
       </c>
       <c r="N27" t="n">
-        <v>9.399999999999977</v>
+        <v>8.89999999999992</v>
       </c>
       <c r="O27" t="n">
         <v>376.8</v>
@@ -15062,7 +15062,7 @@
         <v>-3.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>339.599999999999</v>
+        <v>295.9000000000001</v>
       </c>
       <c r="R27" t="n">
         <v>11390.5</v>
@@ -15080,7 +15080,7 @@
         <v>-7.1</v>
       </c>
       <c r="W27" t="n">
-        <v>15.7</v>
+        <v>15.00000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>72.09999999999999</v>
@@ -15089,7 +15089,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.299999999999997</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="AA27" t="n">
         <v>549.1</v>
@@ -15098,7 +15098,7 @@
         <v>-2.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.69999999999996</v>
+        <v>0.2999999999999401</v>
       </c>
       <c r="AD27" t="n">
         <v>122.9</v>
@@ -15107,7 +15107,7 @@
         <v>-11.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.299999999999972</v>
+        <v>1.299999999999961</v>
       </c>
       <c r="AG27" t="n">
         <v>123.5</v>
@@ -15116,7 +15116,7 @@
         <v>-12</v>
       </c>
       <c r="AI27" t="n">
-        <v>360.5000000000023</v>
+        <v>324.3000000000034</v>
       </c>
       <c r="AJ27" t="n">
         <v>12973.3</v>
@@ -15125,7 +15125,7 @@
         <v>-7.9</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.7000000000000028</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="AM27" t="n">
         <v>34.7</v>
@@ -15170,7 +15170,7 @@
         <v>-5.7</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.5</v>
+        <v>0.8999999999999915</v>
       </c>
       <c r="BB27" t="n">
         <v>80.3</v>
@@ -15251,7 +15251,7 @@
         <v>-3.1</v>
       </c>
       <c r="CB27" t="n">
-        <v>23.59999999999999</v>
+        <v>19.59999999999999</v>
       </c>
       <c r="CC27" t="n">
         <v>844.1</v>
@@ -15287,7 +15287,7 @@
         <v>-6.8</v>
       </c>
       <c r="CN27" t="n">
-        <v>3.699999999999989</v>
+        <v>1.499999999999965</v>
       </c>
       <c r="CO27" t="n">
         <v>265.1</v>
@@ -15296,7 +15296,7 @@
         <v>-12.9</v>
       </c>
       <c r="CQ27" t="n">
-        <v>5.299999999999955</v>
+        <v>3.099999999999945</v>
       </c>
       <c r="CR27" t="n">
         <v>240.4</v>
@@ -15305,7 +15305,7 @@
         <v>-14.6</v>
       </c>
       <c r="CT27" t="n">
-        <v>104.4000000000003</v>
+        <v>100.1000000000004</v>
       </c>
       <c r="CU27" t="n">
         <v>1131.5</v>
@@ -15314,7 +15314,7 @@
         <v>-6.5</v>
       </c>
       <c r="CW27" t="n">
-        <v>15.5</v>
+        <v>14.20000000000002</v>
       </c>
       <c r="CX27" t="n">
         <v>699.4</v>
@@ -15323,7 +15323,7 @@
         <v>-11.5</v>
       </c>
       <c r="CZ27" t="n">
-        <v>33.19999999999999</v>
+        <v>31.29999999999998</v>
       </c>
       <c r="DA27" t="n">
         <v>160.8</v>
@@ -15341,7 +15341,7 @@
         <v>-5.1</v>
       </c>
       <c r="DF27" t="n">
-        <v>4.200000000000102</v>
+        <v>2.500000000000199</v>
       </c>
       <c r="DG27" t="n">
         <v>953.3</v>
@@ -15350,7 +15350,7 @@
         <v>-5.6</v>
       </c>
       <c r="DI27" t="n">
-        <v>2.299999999999995</v>
+        <v>2.099999999999989</v>
       </c>
       <c r="DJ27" t="n">
         <v>35.9</v>
@@ -15359,7 +15359,7 @@
         <v>-13.7</v>
       </c>
       <c r="DL27" t="n">
-        <v>10.90000000000001</v>
+        <v>6.500000000000019</v>
       </c>
       <c r="DM27" t="n">
         <v>468.8</v>
@@ -15368,7 +15368,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="DO27" t="n">
-        <v>9.499999999999972</v>
+        <v>8.199999999999946</v>
       </c>
       <c r="DP27" t="n">
         <v>184.4</v>
@@ -15377,7 +15377,7 @@
         <v>-9.6</v>
       </c>
       <c r="DR27" t="n">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="DS27" t="n">
         <v>745</v>
@@ -15386,7 +15386,7 @@
         <v>-5.1</v>
       </c>
       <c r="DU27" t="n">
-        <v>2.600000000000009</v>
+        <v>2.000000000000008</v>
       </c>
       <c r="DV27" t="n">
         <v>70.90000000000001</v>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>727.3</v>
@@ -15573,7 +15573,7 @@
         <v>-7.3</v>
       </c>
       <c r="E28" t="n">
-        <v>36.30000000000001</v>
+        <v>32.80000000000001</v>
       </c>
       <c r="F28" t="n">
         <v>199.5</v>
@@ -15582,7 +15582,7 @@
         <v>-10.1</v>
       </c>
       <c r="H28" t="n">
-        <v>6.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
         <v>36.1</v>
@@ -15600,7 +15600,7 @@
         <v>-50</v>
       </c>
       <c r="N28" t="n">
-        <v>80.5</v>
+        <v>71.10000000000002</v>
       </c>
       <c r="O28" t="n">
         <v>463.7</v>
@@ -15609,7 +15609,7 @@
         <v>-2.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2517.600000000002</v>
+        <v>2178.000000000003</v>
       </c>
       <c r="R28" t="n">
         <v>14149.8</v>
@@ -15618,7 +15618,7 @@
         <v>-7.3</v>
       </c>
       <c r="T28" t="n">
-        <v>200.4000000000001</v>
+        <v>164.1000000000001</v>
       </c>
       <c r="U28" t="n">
         <v>1128.3</v>
@@ -15636,7 +15636,7 @@
         <v>-6.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>119.9000000000001</v>
+        <v>111.6000000000001</v>
       </c>
       <c r="AA28" t="n">
         <v>687.6</v>
@@ -15645,7 +15645,7 @@
         <v>0.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>27.90000000000001</v>
+        <v>26.20000000000005</v>
       </c>
       <c r="AD28" t="n">
         <v>151.3</v>
@@ -15654,7 +15654,7 @@
         <v>-10.6</v>
       </c>
       <c r="AF28" t="n">
-        <v>29.59999999999999</v>
+        <v>26.30000000000002</v>
       </c>
       <c r="AG28" t="n">
         <v>150.7</v>
@@ -15663,7 +15663,7 @@
         <v>-12.9</v>
       </c>
       <c r="AI28" t="n">
-        <v>2871.5</v>
+        <v>2510.999999999998</v>
       </c>
       <c r="AJ28" t="n">
         <v>16088.7</v>
@@ -15672,7 +15672,7 @@
         <v>-6.9</v>
       </c>
       <c r="AL28" t="n">
-        <v>1.299999999999997</v>
+        <v>0.5999999999999941</v>
       </c>
       <c r="AM28" t="n">
         <v>43.6</v>
@@ -15681,7 +15681,7 @@
         <v>-4.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>3</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="AP28" t="n">
         <v>22.9</v>
@@ -15690,7 +15690,7 @@
         <v>-6.5</v>
       </c>
       <c r="AR28" t="n">
-        <v>43.29999999999998</v>
+        <v>37.2</v>
       </c>
       <c r="AS28" t="n">
         <v>220</v>
@@ -15699,7 +15699,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AU28" t="n">
-        <v>59.69999999999999</v>
+        <v>53.5</v>
       </c>
       <c r="AV28" t="n">
         <v>343.3</v>
@@ -15708,7 +15708,7 @@
         <v>-5.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>16.3</v>
+        <v>14.2</v>
       </c>
       <c r="AY28" t="n">
         <v>88.90000000000001</v>
@@ -15717,7 +15717,7 @@
         <v>-4.2</v>
       </c>
       <c r="BA28" t="n">
-        <v>16.7</v>
+        <v>15.2</v>
       </c>
       <c r="BB28" t="n">
         <v>99.3</v>
@@ -15726,7 +15726,7 @@
         <v>-10.1</v>
       </c>
       <c r="BD28" t="n">
-        <v>89.29999999999995</v>
+        <v>85.69999999999987</v>
       </c>
       <c r="BE28" t="n">
         <v>486.6</v>
@@ -15735,7 +15735,7 @@
         <v>-7.1</v>
       </c>
       <c r="BG28" t="n">
-        <v>21.89999999999998</v>
+        <v>20.69999999999998</v>
       </c>
       <c r="BH28" t="n">
         <v>127.3</v>
@@ -15744,7 +15744,7 @@
         <v>-2.7</v>
       </c>
       <c r="BJ28" t="n">
-        <v>223.5</v>
+        <v>212.6</v>
       </c>
       <c r="BK28" t="n">
         <v>1410.7</v>
@@ -15762,7 +15762,7 @@
         <v>-2.8</v>
       </c>
       <c r="BP28" t="n">
-        <v>6.399999999999991</v>
+        <v>5.099999999999993</v>
       </c>
       <c r="BQ28" t="n">
         <v>650.7</v>
@@ -15771,7 +15771,7 @@
         <v>-6.7</v>
       </c>
       <c r="BS28" t="n">
-        <v>20.89999999999999</v>
+        <v>16.69999999999998</v>
       </c>
       <c r="BT28" t="n">
         <v>115.6</v>
@@ -15780,7 +15780,7 @@
         <v>-4.7</v>
       </c>
       <c r="BV28" t="n">
-        <v>133</v>
+        <v>116.1</v>
       </c>
       <c r="BW28" t="n">
         <v>776.6</v>
@@ -15789,7 +15789,7 @@
         <v>-2.1</v>
       </c>
       <c r="BY28" t="n">
-        <v>90.19999999999993</v>
+        <v>78.99999999999989</v>
       </c>
       <c r="BZ28" t="n">
         <v>533.8</v>
@@ -15798,7 +15798,7 @@
         <v>-1.4</v>
       </c>
       <c r="CB28" t="n">
-        <v>191.5999999999999</v>
+        <v>167.9999999999999</v>
       </c>
       <c r="CC28" t="n">
         <v>1050.6</v>
@@ -15807,7 +15807,7 @@
         <v>-10.5</v>
       </c>
       <c r="CE28" t="n">
-        <v>38</v>
+        <v>30.69999999999999</v>
       </c>
       <c r="CF28" t="n">
         <v>193.7</v>
@@ -15816,7 +15816,7 @@
         <v>-12.2</v>
       </c>
       <c r="CH28" t="n">
-        <v>68.5</v>
+        <v>68.30000000000001</v>
       </c>
       <c r="CI28" t="n">
         <v>396</v>
@@ -15834,7 +15834,7 @@
         <v>-1.5</v>
       </c>
       <c r="CN28" t="n">
-        <v>61.19999999999999</v>
+        <v>57.5</v>
       </c>
       <c r="CO28" t="n">
         <v>331.5</v>
@@ -15843,7 +15843,7 @@
         <v>-10.8</v>
       </c>
       <c r="CQ28" t="n">
-        <v>59.5</v>
+        <v>54.20000000000005</v>
       </c>
       <c r="CR28" t="n">
         <v>298.6</v>
@@ -15852,7 +15852,7 @@
         <v>-13.2</v>
       </c>
       <c r="CT28" t="n">
-        <v>267.3999999999999</v>
+        <v>162.9999999999996</v>
       </c>
       <c r="CU28" t="n">
         <v>1436.1</v>
@@ -15861,7 +15861,7 @@
         <v>-8.5</v>
       </c>
       <c r="CW28" t="n">
-        <v>154</v>
+        <v>138.5</v>
       </c>
       <c r="CX28" t="n">
         <v>872.2</v>
@@ -15879,7 +15879,7 @@
         <v>-4</v>
       </c>
       <c r="DC28" t="n">
-        <v>52.5</v>
+        <v>38.69999999999996</v>
       </c>
       <c r="DD28" t="n">
         <v>310.5</v>
@@ -15888,7 +15888,7 @@
         <v>-3.9</v>
       </c>
       <c r="DF28" t="n">
-        <v>13.09999999999999</v>
+        <v>8.899999999999888</v>
       </c>
       <c r="DG28" t="n">
         <v>1162.3</v>
@@ -15897,7 +15897,7 @@
         <v>-4.6</v>
       </c>
       <c r="DI28" t="n">
-        <v>9.599999999999994</v>
+        <v>7.299999999999999</v>
       </c>
       <c r="DJ28" t="n">
         <v>45.6</v>
@@ -15906,7 +15906,7 @@
         <v>-12.6</v>
       </c>
       <c r="DL28" t="n">
-        <v>113.4</v>
+        <v>102.5</v>
       </c>
       <c r="DM28" t="n">
         <v>580.3</v>
@@ -15915,7 +15915,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="DO28" t="n">
-        <v>39.59999999999999</v>
+        <v>30.10000000000002</v>
       </c>
       <c r="DP28" t="n">
         <v>227.8</v>
@@ -15924,7 +15924,7 @@
         <v>-10.2</v>
       </c>
       <c r="DR28" t="n">
-        <v>164.8</v>
+        <v>150.8</v>
       </c>
       <c r="DS28" t="n">
         <v>924.7</v>
@@ -15933,7 +15933,7 @@
         <v>-3.8</v>
       </c>
       <c r="DU28" t="n">
-        <v>16.59999999999999</v>
+        <v>13.99999999999998</v>
       </c>
       <c r="DV28" t="n">
         <v>88.5</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="DX28" t="n">
-        <v>62.59999999999997</v>
+        <v>52.39999999999992</v>
       </c>
       <c r="DY28" t="n">
         <v>357.2</v>
@@ -15951,7 +15951,7 @@
         <v>-3</v>
       </c>
       <c r="EA28" t="n">
-        <v>85.29999999999995</v>
+        <v>79.49999999999989</v>
       </c>
       <c r="EB28" t="n">
         <v>491.3</v>
@@ -15960,7 +15960,7 @@
         <v>-10</v>
       </c>
       <c r="ED28" t="n">
-        <v>15.8</v>
+        <v>15.19999999999999</v>
       </c>
       <c r="EE28" t="n">
         <v>94</v>
@@ -16138,7 +16138,7 @@
         <v>-6.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L29" t="n">
         <v>0.3</v>
@@ -16174,7 +16174,7 @@
         <v>-5</v>
       </c>
       <c r="W29" t="n">
-        <v>15.2</v>
+        <v>13.4</v>
       </c>
       <c r="X29" t="n">
         <v>104.2</v>
@@ -16219,7 +16219,7 @@
         <v>-6.2</v>
       </c>
       <c r="AL29" t="n">
-        <v>8.5</v>
+        <v>7.200000000000003</v>
       </c>
       <c r="AM29" t="n">
         <v>52.7</v>
@@ -16300,7 +16300,7 @@
         <v>-7.5</v>
       </c>
       <c r="BM29" t="n">
-        <v>34.59999999999999</v>
+        <v>33.40000000000003</v>
       </c>
       <c r="BN29" t="n">
         <v>235.6</v>
@@ -16309,7 +16309,7 @@
         <v>-2.3</v>
       </c>
       <c r="BP29" t="n">
-        <v>124.9</v>
+        <v>118.5</v>
       </c>
       <c r="BQ29" t="n">
         <v>769.9</v>
@@ -16372,7 +16372,7 @@
         <v>-3</v>
       </c>
       <c r="CK29" t="n">
-        <v>37.89999999999998</v>
+        <v>25.09999999999997</v>
       </c>
       <c r="CL29" t="n">
         <v>252</v>
@@ -16435,7 +16435,7 @@
         <v>-4.1</v>
       </c>
       <c r="DF29" t="n">
-        <v>219.8</v>
+        <v>206.7</v>
       </c>
       <c r="DG29" t="n">
         <v>1369.4</v>
@@ -16658,7 +16658,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.20000000000019</v>
+        <v>3.90000000000029</v>
       </c>
       <c r="C30" t="n">
         <v>977.8</v>
@@ -16667,7 +16667,7 @@
         <v>-5.6</v>
       </c>
       <c r="E30" t="n">
-        <v>3.00000000000005</v>
+        <v>1.400000000000084</v>
       </c>
       <c r="F30" t="n">
         <v>270</v>
@@ -16676,7 +16676,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>7.399999999999999</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="I30" t="n">
         <v>49.9</v>
@@ -16685,7 +16685,7 @@
         <v>-7.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L30" t="n">
         <v>0.4</v>
@@ -16694,7 +16694,7 @@
         <v>-42.9</v>
       </c>
       <c r="N30" t="n">
-        <v>10.69999999999993</v>
+        <v>7.599999999999907</v>
       </c>
       <c r="O30" t="n">
         <v>621.7</v>
@@ -16703,7 +16703,7 @@
         <v>-2.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.599999999999</v>
+        <v>126.2000000000012</v>
       </c>
       <c r="R30" t="n">
         <v>19120.3</v>
@@ -16730,7 +16730,7 @@
         <v>-5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>123.0999999999999</v>
+        <v>119.5</v>
       </c>
       <c r="AA30" t="n">
         <v>927.7</v>
@@ -16739,7 +16739,7 @@
         <v>-0.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.899999999999949</v>
+        <v>2.599999999999937</v>
       </c>
       <c r="AD30" t="n">
         <v>203.8</v>
@@ -16748,7 +16748,7 @@
         <v>-9.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>2.800000000000011</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="AG30" t="n">
         <v>205.7</v>
@@ -16757,7 +16757,7 @@
         <v>-12</v>
       </c>
       <c r="AI30" t="n">
-        <v>254.3000000000034</v>
+        <v>148.5000000000046</v>
       </c>
       <c r="AJ30" t="n">
         <v>21741.5</v>
@@ -16775,7 +16775,7 @@
         <v>-4.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.200000000000003</v>
+        <v>2.900000000000006</v>
       </c>
       <c r="AP30" t="n">
         <v>29.3</v>
@@ -16793,7 +16793,7 @@
         <v>-7.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>12.79999999999995</v>
+        <v>9.799999999999885</v>
       </c>
       <c r="AV30" t="n">
         <v>464.5</v>
@@ -16802,7 +16802,7 @@
         <v>-4.3</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.400000000000002</v>
+        <v>1.299999999999993</v>
       </c>
       <c r="AY30" t="n">
         <v>123.1</v>
@@ -16811,7 +16811,7 @@
         <v>-1.9</v>
       </c>
       <c r="BA30" t="n">
-        <v>2.899999999999991</v>
+        <v>1.499999999999982</v>
       </c>
       <c r="BB30" t="n">
         <v>136.8</v>
@@ -16829,7 +16829,7 @@
         <v>-6.2</v>
       </c>
       <c r="BG30" t="n">
-        <v>2.799999999999979</v>
+        <v>1.999999999999939</v>
       </c>
       <c r="BH30" t="n">
         <v>172.3</v>
@@ -16865,7 +16865,7 @@
         <v>-6.6</v>
       </c>
       <c r="BS30" t="n">
-        <v>21.20000000000002</v>
+        <v>20.7</v>
       </c>
       <c r="BT30" t="n">
         <v>153.8</v>
@@ -16874,7 +16874,7 @@
         <v>-6</v>
       </c>
       <c r="BV30" t="n">
-        <v>9.599999999999994</v>
+        <v>4.199999999999989</v>
       </c>
       <c r="BW30" t="n">
         <v>1051.1</v>
@@ -16883,7 +16883,7 @@
         <v>-1.3</v>
       </c>
       <c r="BY30" t="n">
-        <v>6.800000000000026</v>
+        <v>2.599999999999981</v>
       </c>
       <c r="BZ30" t="n">
         <v>725</v>
@@ -16901,7 +16901,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="CE30" t="n">
-        <v>3.699999999999989</v>
+        <v>2.399999999999978</v>
       </c>
       <c r="CF30" t="n">
         <v>264.4</v>
@@ -16910,7 +16910,7 @@
         <v>-11.2</v>
       </c>
       <c r="CH30" t="n">
-        <v>68.60000000000002</v>
+        <v>61.10000000000008</v>
       </c>
       <c r="CI30" t="n">
         <v>536.7</v>
@@ -16928,7 +16928,7 @@
         <v>-5.3</v>
       </c>
       <c r="CN30" t="n">
-        <v>4.999999999999943</v>
+        <v>4.099999999999909</v>
       </c>
       <c r="CO30" t="n">
         <v>450.8</v>
@@ -16964,7 +16964,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="CZ30" t="n">
-        <v>4.899999999999956</v>
+        <v>3.099999999999948</v>
       </c>
       <c r="DA30" t="n">
         <v>267.4</v>
@@ -16973,7 +16973,7 @@
         <v>-1.5</v>
       </c>
       <c r="DC30" t="n">
-        <v>9.699999999999989</v>
+        <v>9.5</v>
       </c>
       <c r="DD30" t="n">
         <v>410.2</v>
@@ -17009,7 +17009,7 @@
         <v>-7.8</v>
       </c>
       <c r="DO30" t="n">
-        <v>7.49999999999995</v>
+        <v>3.999999999999914</v>
       </c>
       <c r="DP30" t="n">
         <v>311.7</v>
@@ -17018,7 +17018,7 @@
         <v>-7.3</v>
       </c>
       <c r="DR30" t="n">
-        <v>17.5</v>
+        <v>10.89999999999992</v>
       </c>
       <c r="DS30" t="n">
         <v>1250.8</v>
@@ -17027,7 +17027,7 @@
         <v>-3.6</v>
       </c>
       <c r="DU30" t="n">
-        <v>2.599999999999991</v>
+        <v>2.199999999999982</v>
       </c>
       <c r="DV30" t="n">
         <v>120.1</v>
@@ -17036,7 +17036,7 @@
         <v>-1.6</v>
       </c>
       <c r="DX30" t="n">
-        <v>6.899999999999977</v>
+        <v>3.299999999999905</v>
       </c>
       <c r="DY30" t="n">
         <v>486.3</v>
@@ -17054,7 +17054,7 @@
         <v>-6.6</v>
       </c>
       <c r="ED30" t="n">
-        <v>17.90000000000001</v>
+        <v>15.40000000000001</v>
       </c>
       <c r="EE30" t="n">
         <v>125.5</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>127.5</v>
+        <v>112.2999999999998</v>
       </c>
       <c r="C31" t="n">
         <v>1126.1</v>
@@ -17214,7 +17214,7 @@
         <v>-4.8</v>
       </c>
       <c r="E31" t="n">
-        <v>36.59999999999997</v>
+        <v>33.59999999999992</v>
       </c>
       <c r="F31" t="n">
         <v>309.4</v>
@@ -17241,7 +17241,7 @@
         <v>-42.9</v>
       </c>
       <c r="N31" t="n">
-        <v>87.89999999999998</v>
+        <v>77.20000000000005</v>
       </c>
       <c r="O31" t="n">
         <v>717.1</v>
@@ -17250,7 +17250,7 @@
         <v>-2.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2585.900000000001</v>
+        <v>2358.300000000002</v>
       </c>
       <c r="R31" t="n">
         <v>21988.2</v>
@@ -17259,7 +17259,7 @@
         <v>-5.4</v>
       </c>
       <c r="T31" t="n">
-        <v>203.9000000000001</v>
+        <v>179.0000000000001</v>
       </c>
       <c r="U31" t="n">
         <v>1726.9</v>
@@ -17268,7 +17268,7 @@
         <v>-4.3</v>
       </c>
       <c r="W31" t="n">
-        <v>14.90000000000001</v>
+        <v>13.50000000000002</v>
       </c>
       <c r="X31" t="n">
         <v>136</v>
@@ -17286,7 +17286,7 @@
         <v>1.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>29.90000000000003</v>
+        <v>27.00000000000008</v>
       </c>
       <c r="AD31" t="n">
         <v>234.5</v>
@@ -17295,7 +17295,7 @@
         <v>-8.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>32.39999999999998</v>
+        <v>29.59999999999997</v>
       </c>
       <c r="AG31" t="n">
         <v>236.3</v>
@@ -17304,7 +17304,7 @@
         <v>-11.7</v>
       </c>
       <c r="AI31" t="n">
-        <v>2999.699999999997</v>
+        <v>2745.399999999994</v>
       </c>
       <c r="AJ31" t="n">
         <v>24999.7</v>
@@ -17331,7 +17331,7 @@
         <v>-10.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>46.39999999999998</v>
+        <v>38.69999999999999</v>
       </c>
       <c r="AS31" t="n">
         <v>349.5</v>
@@ -17340,7 +17340,7 @@
         <v>-7.7</v>
       </c>
       <c r="AU31" t="n">
-        <v>66.39999999999998</v>
+        <v>53.60000000000003</v>
       </c>
       <c r="AV31" t="n">
         <v>540</v>
@@ -17349,7 +17349,7 @@
         <v>-3.8</v>
       </c>
       <c r="AX31" t="n">
-        <v>17.19999999999999</v>
+        <v>15.79999999999999</v>
       </c>
       <c r="AY31" t="n">
         <v>140.7</v>
@@ -17358,7 +17358,7 @@
         <v>-1.8</v>
       </c>
       <c r="BA31" t="n">
-        <v>20.69999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="BB31" t="n">
         <v>156.5</v>
@@ -17367,7 +17367,7 @@
         <v>-5.9</v>
       </c>
       <c r="BD31" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="BE31" t="n">
         <v>752.5</v>
@@ -17376,7 +17376,7 @@
         <v>-5.7</v>
       </c>
       <c r="BG31" t="n">
-        <v>23</v>
+        <v>20.20000000000002</v>
       </c>
       <c r="BH31" t="n">
         <v>197.9</v>
@@ -17385,7 +17385,7 @@
         <v>-1.5</v>
       </c>
       <c r="BJ31" t="n">
-        <v>267.8000000000002</v>
+        <v>237.4000000000004</v>
       </c>
       <c r="BK31" t="n">
         <v>2207.3</v>
@@ -17394,7 +17394,7 @@
         <v>-5.5</v>
       </c>
       <c r="BM31" t="n">
-        <v>31</v>
+        <v>27.19999999999996</v>
       </c>
       <c r="BN31" t="n">
         <v>307.1</v>
@@ -17403,7 +17403,7 @@
         <v>-2.2</v>
       </c>
       <c r="BP31" t="n">
-        <v>130.0999999999999</v>
+        <v>118.9999999999999</v>
       </c>
       <c r="BQ31" t="n">
         <v>1016.3</v>
@@ -17421,7 +17421,7 @@
         <v>-4.7</v>
       </c>
       <c r="BV31" t="n">
-        <v>35.60000000000011</v>
+        <v>26.00000000000011</v>
       </c>
       <c r="BW31" t="n">
         <v>1217.5</v>
@@ -17430,7 +17430,7 @@
         <v>0.4</v>
       </c>
       <c r="BY31" t="n">
-        <v>38.60000000000001</v>
+        <v>31.79999999999998</v>
       </c>
       <c r="BZ31" t="n">
         <v>843.5</v>
@@ -17439,7 +17439,7 @@
         <v>2</v>
       </c>
       <c r="CB31" t="n">
-        <v>181</v>
+        <v>173.9</v>
       </c>
       <c r="CC31" t="n">
         <v>1627.6</v>
@@ -17448,7 +17448,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="CE31" t="n">
-        <v>37.09999999999997</v>
+        <v>33.39999999999998</v>
       </c>
       <c r="CF31" t="n">
         <v>303</v>
@@ -17466,7 +17466,7 @@
         <v>-2.8</v>
       </c>
       <c r="CK31" t="n">
-        <v>4.200000000000045</v>
+        <v>1.700000000000045</v>
       </c>
       <c r="CL31" t="n">
         <v>319.3</v>
@@ -17475,7 +17475,7 @@
         <v>-6.3</v>
       </c>
       <c r="CN31" t="n">
-        <v>63.80000000000007</v>
+        <v>58.80000000000013</v>
       </c>
       <c r="CO31" t="n">
         <v>516</v>
@@ -17484,7 +17484,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="CQ31" t="n">
-        <v>57.79999999999995</v>
+        <v>55.09999999999991</v>
       </c>
       <c r="CR31" t="n">
         <v>462.1</v>
@@ -17493,7 +17493,7 @@
         <v>-11.9</v>
       </c>
       <c r="CT31" t="n">
-        <v>240.0999999999999</v>
+        <v>213.6000000000001</v>
       </c>
       <c r="CU31" t="n">
         <v>2235.7</v>
@@ -17502,7 +17502,7 @@
         <v>-6.5</v>
       </c>
       <c r="CW31" t="n">
-        <v>167</v>
+        <v>164.5</v>
       </c>
       <c r="CX31" t="n">
         <v>1356.9</v>
@@ -17511,7 +17511,7 @@
         <v>-6.7</v>
       </c>
       <c r="CZ31" t="n">
-        <v>34.40000000000003</v>
+        <v>29.50000000000007</v>
       </c>
       <c r="DA31" t="n">
         <v>305.8</v>
@@ -17520,7 +17520,7 @@
         <v>-1.4</v>
       </c>
       <c r="DC31" t="n">
-        <v>54.80000000000001</v>
+        <v>45.10000000000002</v>
       </c>
       <c r="DD31" t="n">
         <v>469.4</v>
@@ -17529,7 +17529,7 @@
         <v>-4.3</v>
       </c>
       <c r="DF31" t="n">
-        <v>230.2000000000003</v>
+        <v>213.0000000000003</v>
       </c>
       <c r="DG31" t="n">
         <v>1794</v>
@@ -17538,7 +17538,7 @@
         <v>-5.4</v>
       </c>
       <c r="DI31" t="n">
-        <v>9.299999999999997</v>
+        <v>8.500000000000014</v>
       </c>
       <c r="DJ31" t="n">
         <v>71.40000000000001</v>
@@ -17547,7 +17547,7 @@
         <v>-11.6</v>
       </c>
       <c r="DL31" t="n">
-        <v>111.5000000000001</v>
+        <v>104.1000000000001</v>
       </c>
       <c r="DM31" t="n">
         <v>909.5</v>
@@ -17556,7 +17556,7 @@
         <v>-7</v>
       </c>
       <c r="DO31" t="n">
-        <v>43</v>
+        <v>35.50000000000005</v>
       </c>
       <c r="DP31" t="n">
         <v>356.5</v>
@@ -17565,7 +17565,7 @@
         <v>-7.9</v>
       </c>
       <c r="DR31" t="n">
-        <v>180.6999999999998</v>
+        <v>163.1999999999998</v>
       </c>
       <c r="DS31" t="n">
         <v>1444.6</v>
@@ -17574,7 +17574,7 @@
         <v>-2.8</v>
       </c>
       <c r="DU31" t="n">
-        <v>17.70000000000002</v>
+        <v>15.10000000000003</v>
       </c>
       <c r="DV31" t="n">
         <v>139</v>
@@ -17583,7 +17583,7 @@
         <v>-1.9</v>
       </c>
       <c r="DX31" t="n">
-        <v>68.89999999999998</v>
+        <v>62</v>
       </c>
       <c r="DY31" t="n">
         <v>558</v>
@@ -17592,7 +17592,7 @@
         <v>-2.1</v>
       </c>
       <c r="EA31" t="n">
-        <v>82.19999999999993</v>
+        <v>79.79999999999984</v>
       </c>
       <c r="EB31" t="n">
         <v>764.4</v>
@@ -17770,7 +17770,7 @@
         <v>-7.5</v>
       </c>
       <c r="H32" t="n">
-        <v>7.400000000000006</v>
+        <v>7.200000000000003</v>
       </c>
       <c r="I32" t="n">
         <v>64.7</v>
@@ -17779,7 +17779,7 @@
         <v>-6.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="L32" t="n">
         <v>0.4</v>
@@ -17860,7 +17860,7 @@
         <v>-4.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.6000000000000085</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="AM32" t="n">
         <v>80.7</v>
@@ -17968,7 +17968,7 @@
         <v>-4.9</v>
       </c>
       <c r="BV32" t="n">
-        <v>125.8</v>
+        <v>90.19999999999989</v>
       </c>
       <c r="BW32" t="n">
         <v>1343.7</v>
@@ -17977,7 +17977,7 @@
         <v>-3.8</v>
       </c>
       <c r="BY32" t="n">
-        <v>76.29999999999995</v>
+        <v>37.69999999999995</v>
       </c>
       <c r="BZ32" t="n">
         <v>925.8</v>
@@ -18004,7 +18004,7 @@
         <v>-10.7</v>
       </c>
       <c r="CH32" t="n">
-        <v>59.39999999999998</v>
+        <v>59.19999999999993</v>
       </c>
       <c r="CI32" t="n">
         <v>689.2</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>80.89999999999992</v>
+        <v>70.69999999999993</v>
       </c>
       <c r="C33" t="n">
         <v>1409.2</v>
@@ -18335,7 +18335,7 @@
         <v>-37.5</v>
       </c>
       <c r="N33" t="n">
-        <v>35.60000000000011</v>
+        <v>25.50000000000009</v>
       </c>
       <c r="O33" t="n">
         <v>907.8</v>
@@ -18344,7 +18344,7 @@
         <v>-1.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1303.200000000001</v>
+        <v>1134.800000000003</v>
       </c>
       <c r="R33" t="n">
         <v>27572.1</v>
@@ -18353,7 +18353,7 @@
         <v>-3.6</v>
       </c>
       <c r="T33" t="n">
-        <v>90.10000000000039</v>
+        <v>75.70000000000078</v>
       </c>
       <c r="U33" t="n">
         <v>2143.8</v>
@@ -18362,7 +18362,7 @@
         <v>-3.7</v>
       </c>
       <c r="W33" t="n">
-        <v>17.09999999999997</v>
+        <v>5.79999999999996</v>
       </c>
       <c r="X33" t="n">
         <v>167.5</v>
@@ -18371,7 +18371,7 @@
         <v>-1.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>56.80000000000001</v>
+        <v>17.9000000000001</v>
       </c>
       <c r="AA33" t="n">
         <v>1347.4</v>
@@ -18380,7 +18380,7 @@
         <v>2.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>12.60000000000008</v>
+        <v>9.400000000000137</v>
       </c>
       <c r="AD33" t="n">
         <v>293.2</v>
@@ -18389,7 +18389,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AF33" t="n">
-        <v>7.399999999999984</v>
+        <v>6.399999999999935</v>
       </c>
       <c r="AG33" t="n">
         <v>301</v>
@@ -18398,7 +18398,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AI33" t="n">
-        <v>1660.200000000004</v>
+        <v>1542.400000000001</v>
       </c>
       <c r="AJ33" t="n">
         <v>31327.9</v>
@@ -18407,7 +18407,7 @@
         <v>-3.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>4.099999999999982</v>
+        <v>3.499999999999973</v>
       </c>
       <c r="AM33" t="n">
         <v>89.7</v>
@@ -18416,7 +18416,7 @@
         <v>-1.3</v>
       </c>
       <c r="AO33" t="n">
-        <v>10.1</v>
+        <v>6.999999999999998</v>
       </c>
       <c r="AP33" t="n">
         <v>42.9</v>
@@ -18425,7 +18425,7 @@
         <v>-5.1</v>
       </c>
       <c r="AR33" t="n">
-        <v>16.69999999999999</v>
+        <v>15.79999999999995</v>
       </c>
       <c r="AS33" t="n">
         <v>436.1</v>
@@ -18434,7 +18434,7 @@
         <v>-7.7</v>
       </c>
       <c r="AU33" t="n">
-        <v>37.80000000000004</v>
+        <v>30.40000000000006</v>
       </c>
       <c r="AV33" t="n">
         <v>691.3</v>
@@ -18443,7 +18443,7 @@
         <v>-1.4</v>
       </c>
       <c r="AX33" t="n">
-        <v>5.800000000000011</v>
+        <v>2.300000000000011</v>
       </c>
       <c r="AY33" t="n">
         <v>171.6</v>
@@ -18452,7 +18452,7 @@
         <v>-5.3</v>
       </c>
       <c r="BA33" t="n">
-        <v>9.699999999999982</v>
+        <v>8.999999999999961</v>
       </c>
       <c r="BB33" t="n">
         <v>196.4</v>
@@ -18461,7 +18461,7 @@
         <v>-5.8</v>
       </c>
       <c r="BD33" t="n">
-        <v>34.19999999999982</v>
+        <v>27.89999999999975</v>
       </c>
       <c r="BE33" t="n">
         <v>940.7</v>
@@ -18470,7 +18470,7 @@
         <v>-4.2</v>
       </c>
       <c r="BG33" t="n">
-        <v>19.09999999999999</v>
+        <v>16.69999999999998</v>
       </c>
       <c r="BH33" t="n">
         <v>249</v>
@@ -18488,7 +18488,7 @@
         <v>-3.7</v>
       </c>
       <c r="BM33" t="n">
-        <v>32.4000000000001</v>
+        <v>19.60000000000015</v>
       </c>
       <c r="BN33" t="n">
         <v>399.1</v>
@@ -18506,7 +18506,7 @@
         <v>-5.6</v>
       </c>
       <c r="BS33" t="n">
-        <v>25.09999999999997</v>
+        <v>22.09999999999997</v>
       </c>
       <c r="BT33" t="n">
         <v>218.1</v>
@@ -18515,7 +18515,7 @@
         <v>-5.1</v>
       </c>
       <c r="BV33" t="n">
-        <v>229.5999999999999</v>
+        <v>103.7999999999999</v>
       </c>
       <c r="BW33" t="n">
         <v>1505.2</v>
@@ -18524,7 +18524,7 @@
         <v>-1.1</v>
       </c>
       <c r="BY33" t="n">
-        <v>185.6000000000001</v>
+        <v>109.3000000000002</v>
       </c>
       <c r="BZ33" t="n">
         <v>1038</v>
@@ -18533,7 +18533,7 @@
         <v>-0.5</v>
       </c>
       <c r="CB33" t="n">
-        <v>98.49999999999983</v>
+        <v>71.29999999999984</v>
       </c>
       <c r="CC33" t="n">
         <v>2064.1</v>
@@ -18542,7 +18542,7 @@
         <v>-5.1</v>
       </c>
       <c r="CE33" t="n">
-        <v>8.899999999999977</v>
+        <v>7.899999999999928</v>
       </c>
       <c r="CF33" t="n">
         <v>373.1</v>
@@ -18560,7 +18560,7 @@
         <v>0.7</v>
       </c>
       <c r="CK33" t="n">
-        <v>27.70000000000005</v>
+        <v>24.60000000000008</v>
       </c>
       <c r="CL33" t="n">
         <v>405.5</v>
@@ -18578,7 +18578,7 @@
         <v>-5.8</v>
       </c>
       <c r="CQ33" t="n">
-        <v>17.39999999999998</v>
+        <v>7.599999999999905</v>
       </c>
       <c r="CR33" t="n">
         <v>577.1</v>
@@ -18587,7 +18587,7 @@
         <v>-11.2</v>
       </c>
       <c r="CT33" t="n">
-        <v>139.2000000000003</v>
+        <v>115.6000000000004</v>
       </c>
       <c r="CU33" t="n">
         <v>2786.2</v>
@@ -18605,7 +18605,7 @@
         <v>-5.1</v>
       </c>
       <c r="CZ33" t="n">
-        <v>17.29999999999995</v>
+        <v>14.19999999999998</v>
       </c>
       <c r="DA33" t="n">
         <v>383.1</v>
@@ -18614,7 +18614,7 @@
         <v>0.3</v>
       </c>
       <c r="DC33" t="n">
-        <v>29.70000000000005</v>
+        <v>26.00000000000006</v>
       </c>
       <c r="DD33" t="n">
         <v>583.4</v>
@@ -18623,7 +18623,7 @@
         <v>-3.4</v>
       </c>
       <c r="DF33" t="n">
-        <v>127.3000000000007</v>
+        <v>120.1000000000014</v>
       </c>
       <c r="DG33" t="n">
         <v>2250.5</v>
@@ -18632,7 +18632,7 @@
         <v>-4.8</v>
       </c>
       <c r="DI33" t="n">
-        <v>9.000000000000004</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="DJ33" t="n">
         <v>88.8</v>
@@ -18641,7 +18641,7 @@
         <v>-10.3</v>
       </c>
       <c r="DL33" t="n">
-        <v>56.9000000000003</v>
+        <v>53.20000000000059</v>
       </c>
       <c r="DM33" t="n">
         <v>1144.6</v>
@@ -18650,7 +18650,7 @@
         <v>-5</v>
       </c>
       <c r="DO33" t="n">
-        <v>26.29999999999995</v>
+        <v>16.99999999999994</v>
       </c>
       <c r="DP33" t="n">
         <v>453</v>
@@ -18659,7 +18659,7 @@
         <v>-6.1</v>
       </c>
       <c r="DR33" t="n">
-        <v>87.39999999999966</v>
+        <v>75.49999999999935</v>
       </c>
       <c r="DS33" t="n">
         <v>1832.8</v>
@@ -18668,7 +18668,7 @@
         <v>-1.4</v>
       </c>
       <c r="DU33" t="n">
-        <v>4.000000000000032</v>
+        <v>1.500000000000064</v>
       </c>
       <c r="DV33" t="n">
         <v>178.5</v>
@@ -18677,7 +18677,7 @@
         <v>-0.6</v>
       </c>
       <c r="DX33" t="n">
-        <v>28.60000000000016</v>
+        <v>25.80000000000021</v>
       </c>
       <c r="DY33" t="n">
         <v>695.1</v>
@@ -18686,7 +18686,7 @@
         <v>-2.2</v>
       </c>
       <c r="EA33" t="n">
-        <v>70.79999999999984</v>
+        <v>66.79999999999973</v>
       </c>
       <c r="EB33" t="n">
         <v>960.7</v>
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.4</v>
+        <v>132.5000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>1657.9</v>
@@ -18855,7 +18855,7 @@
         <v>-0.5</v>
       </c>
       <c r="E34" t="n">
-        <v>60.6</v>
+        <v>34.19999999999997</v>
       </c>
       <c r="F34" t="n">
         <v>449.5</v>
@@ -18918,7 +18918,7 @@
         <v>-3.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>194.5</v>
+        <v>137.7</v>
       </c>
       <c r="AA34" t="n">
         <v>1575.1</v>
@@ -18954,7 +18954,7 @@
         <v>-2.2</v>
       </c>
       <c r="AL34" t="n">
-        <v>13.3</v>
+        <v>9.200000000000019</v>
       </c>
       <c r="AM34" t="n">
         <v>104.9</v>
@@ -18981,7 +18981,7 @@
         <v>-7.6</v>
       </c>
       <c r="AU34" t="n">
-        <v>106.4</v>
+        <v>68.59999999999997</v>
       </c>
       <c r="AV34" t="n">
         <v>816.4</v>
@@ -18990,7 +18990,7 @@
         <v>0.4</v>
       </c>
       <c r="AX34" t="n">
-        <v>25.9</v>
+        <v>20.09999999999999</v>
       </c>
       <c r="AY34" t="n">
         <v>196.5</v>
@@ -18999,7 +18999,7 @@
         <v>-5.4</v>
       </c>
       <c r="BA34" t="n">
-        <v>28.6</v>
+        <v>18.90000000000002</v>
       </c>
       <c r="BB34" t="n">
         <v>224.2</v>
@@ -19017,7 +19017,7 @@
         <v>-3</v>
       </c>
       <c r="BG34" t="n">
-        <v>44.2</v>
+        <v>25.10000000000001</v>
       </c>
       <c r="BH34" t="n">
         <v>297.3</v>
@@ -19035,7 +19035,7 @@
         <v>-0.5</v>
       </c>
       <c r="BM34" t="n">
-        <v>68.59999999999999</v>
+        <v>36.1999999999999</v>
       </c>
       <c r="BN34" t="n">
         <v>611.7</v>
@@ -19044,7 +19044,7 @@
         <v>31.5</v>
       </c>
       <c r="BP34" t="n">
-        <v>199.1</v>
+        <v>127.1999999999999</v>
       </c>
       <c r="BQ34" t="n">
         <v>1460.7</v>
@@ -19053,7 +19053,7 @@
         <v>-5.5</v>
       </c>
       <c r="BS34" t="n">
-        <v>37.7</v>
+        <v>12.60000000000003</v>
       </c>
       <c r="BT34" t="n">
         <v>265.9</v>
@@ -19062,7 +19062,7 @@
         <v>-4.7</v>
       </c>
       <c r="BV34" t="n">
-        <v>249.3</v>
+        <v>19.7000000000001</v>
       </c>
       <c r="BW34" t="n">
         <v>1824.1</v>
@@ -19098,7 +19098,7 @@
         <v>-10.1</v>
       </c>
       <c r="CH34" t="n">
-        <v>43.90000000000001</v>
+        <v>20.79999999999999</v>
       </c>
       <c r="CI34" t="n">
         <v>858.5</v>
@@ -19107,7 +19107,7 @@
         <v>2.6</v>
       </c>
       <c r="CK34" t="n">
-        <v>68.59999999999999</v>
+        <v>40.89999999999995</v>
       </c>
       <c r="CL34" t="n">
         <v>470</v>
@@ -19170,7 +19170,7 @@
         <v>-1.9</v>
       </c>
       <c r="DF34" t="n">
-        <v>354.8</v>
+        <v>227.4999999999993</v>
       </c>
       <c r="DG34" t="n">
         <v>2597.8</v>
@@ -19179,7 +19179,7 @@
         <v>-4.8</v>
       </c>
       <c r="DI34" t="n">
-        <v>15.3</v>
+        <v>6.299999999999997</v>
       </c>
       <c r="DJ34" t="n">
         <v>106.2</v>
@@ -19188,7 +19188,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="DL34" t="n">
-        <v>171.1</v>
+        <v>114.1999999999997</v>
       </c>
       <c r="DM34" t="n">
         <v>1309.8</v>
@@ -19197,7 +19197,7 @@
         <v>-4.9</v>
       </c>
       <c r="DO34" t="n">
-        <v>69.2</v>
+        <v>42.90000000000005</v>
       </c>
       <c r="DP34" t="n">
         <v>527.6</v>
@@ -19206,7 +19206,7 @@
         <v>-5.9</v>
       </c>
       <c r="DR34" t="n">
-        <v>276</v>
+        <v>188.6000000000003</v>
       </c>
       <c r="DS34" t="n">
         <v>2114.5</v>
@@ -19411,7 +19411,7 @@
         <v>21.6</v>
       </c>
       <c r="H35" t="n">
-        <v>6.399999999999999</v>
+        <v>5.999999999999988</v>
       </c>
       <c r="I35" t="n">
         <v>13.5</v>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>81.5</v>
+        <v>79.90000000000012</v>
       </c>
       <c r="O35" t="n">
         <v>159.7</v>
@@ -19438,7 +19438,7 @@
         <v>18.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>2498.7</v>
+        <v>2340</v>
       </c>
       <c r="R35" t="n">
         <v>5071.1</v>
@@ -19447,7 +19447,7 @@
         <v>20.3</v>
       </c>
       <c r="T35" t="n">
-        <v>197.4999999999999</v>
+        <v>172.6</v>
       </c>
       <c r="U35" t="n">
         <v>379.6</v>
@@ -19456,7 +19456,7 @@
         <v>13.9</v>
       </c>
       <c r="W35" t="n">
-        <v>15.1</v>
+        <v>14.99999999999998</v>
       </c>
       <c r="X35" t="n">
         <v>31.3</v>
@@ -19474,7 +19474,7 @@
         <v>19.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>26.2</v>
+        <v>25.50000000000005</v>
       </c>
       <c r="AD35" t="n">
         <v>55.2</v>
@@ -19483,7 +19483,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>28.3</v>
+        <v>26.80000000000001</v>
       </c>
       <c r="AG35" t="n">
         <v>53</v>
@@ -19492,7 +19492,7 @@
         <v>25.3</v>
       </c>
       <c r="AI35" t="n">
-        <v>2851.5</v>
+        <v>2808.900000000004</v>
       </c>
       <c r="AJ35" t="n">
         <v>5777.7</v>
@@ -19519,7 +19519,7 @@
         <v>13.6</v>
       </c>
       <c r="AR35" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="AS35" t="n">
         <v>80.8</v>
@@ -19555,7 +19555,7 @@
         <v>19.9</v>
       </c>
       <c r="BD35" t="n">
-        <v>85.5</v>
+        <v>70.99999999999989</v>
       </c>
       <c r="BE35" t="n">
         <v>174.7</v>
@@ -19573,7 +19573,7 @@
         <v>17.2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>247.6999999999999</v>
+        <v>189.6999999999998</v>
       </c>
       <c r="BK35" t="n">
         <v>510.4</v>
@@ -19627,7 +19627,7 @@
         <v>11.5</v>
       </c>
       <c r="CB35" t="n">
-        <v>185.7</v>
+        <v>182.1999999999998</v>
       </c>
       <c r="CC35" t="n">
         <v>381</v>
@@ -19636,7 +19636,7 @@
         <v>22.8</v>
       </c>
       <c r="CE35" t="n">
-        <v>34.3</v>
+        <v>28.4</v>
       </c>
       <c r="CF35" t="n">
         <v>58.8</v>
@@ -19645,7 +19645,7 @@
         <v>11.2</v>
       </c>
       <c r="CH35" t="n">
-        <v>68</v>
+        <v>24.09999999999999</v>
       </c>
       <c r="CI35" t="n">
         <v>152.4</v>
@@ -19663,7 +19663,7 @@
         <v>24.1</v>
       </c>
       <c r="CN35" t="n">
-        <v>57.30000000000001</v>
+        <v>55.19999999999999</v>
       </c>
       <c r="CO35" t="n">
         <v>114.5</v>
@@ -19672,7 +19672,7 @@
         <v>21.8</v>
       </c>
       <c r="CQ35" t="n">
-        <v>53.59999999999999</v>
+        <v>52.59999999999999</v>
       </c>
       <c r="CR35" t="n">
         <v>99.8</v>
@@ -19681,7 +19681,7 @@
         <v>16</v>
       </c>
       <c r="CT35" t="n">
-        <v>259.9</v>
+        <v>240.0000000000001</v>
       </c>
       <c r="CU35" t="n">
         <v>522.6</v>
@@ -19690,7 +19690,7 @@
         <v>23.6</v>
       </c>
       <c r="CW35" t="n">
-        <v>154.9</v>
+        <v>148</v>
       </c>
       <c r="CX35" t="n">
         <v>315.3</v>
@@ -19699,7 +19699,7 @@
         <v>22.4</v>
       </c>
       <c r="CZ35" t="n">
-        <v>36.3</v>
+        <v>32.19999999999995</v>
       </c>
       <c r="DA35" t="n">
         <v>71</v>
@@ -19708,7 +19708,7 @@
         <v>20.5</v>
       </c>
       <c r="DC35" t="n">
-        <v>47.30000000000001</v>
+        <v>31.50000000000006</v>
       </c>
       <c r="DD35" t="n">
         <v>115.3</v>
@@ -19762,7 +19762,7 @@
         <v>24.8</v>
       </c>
       <c r="DU35" t="n">
-        <v>16.2</v>
+        <v>14.80000000000002</v>
       </c>
       <c r="DV35" t="n">
         <v>33.4</v>
@@ -19771,7 +19771,7 @@
         <v>30.5</v>
       </c>
       <c r="DX35" t="n">
-        <v>65.7</v>
+        <v>58.8000000000001</v>
       </c>
       <c r="DY35" t="n">
         <v>121.5</v>
@@ -19780,7 +19780,7 @@
         <v>13.3</v>
       </c>
       <c r="EA35" t="n">
-        <v>79.20000000000002</v>
+        <v>77.49999999999991</v>
       </c>
       <c r="EB35" t="n">
         <v>171.7</v>
@@ -19789,7 +19789,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="ED35" t="n">
-        <v>18.3</v>
+        <v>13</v>
       </c>
       <c r="EE35" t="n">
         <v>36.7</v>
@@ -20505,7 +20505,7 @@
         <v>22</v>
       </c>
       <c r="H37" t="n">
-        <v>6.5</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="I37" t="n">
         <v>28.8</v>
@@ -20523,7 +20523,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>83</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="O37" t="n">
         <v>338.1</v>
@@ -20568,7 +20568,7 @@
         <v>13.2</v>
       </c>
       <c r="AC37" t="n">
-        <v>25.80000000000001</v>
+        <v>25.50000000000001</v>
       </c>
       <c r="AD37" t="n">
         <v>115.3</v>
@@ -20595,7 +20595,7 @@
         <v>17.9</v>
       </c>
       <c r="AL37" t="n">
-        <v>7.600000000000001</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="AM37" t="n">
         <v>37.6</v>
@@ -20604,7 +20604,7 @@
         <v>27</v>
       </c>
       <c r="AO37" t="n">
-        <v>3.699999999999999</v>
+        <v>3.499999999999998</v>
       </c>
       <c r="AP37" t="n">
         <v>15.4</v>
@@ -20640,7 +20640,7 @@
         <v>13.7</v>
       </c>
       <c r="BA37" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="BB37" t="n">
         <v>73.3</v>
@@ -20658,7 +20658,7 @@
         <v>18.9</v>
       </c>
       <c r="BG37" t="n">
-        <v>21</v>
+        <v>20.99999999999998</v>
       </c>
       <c r="BH37" t="n">
         <v>102.7</v>
@@ -20676,7 +20676,7 @@
         <v>17.8</v>
       </c>
       <c r="BM37" t="n">
-        <v>30.5</v>
+        <v>28.80000000000001</v>
       </c>
       <c r="BN37" t="n">
         <v>153.8</v>
@@ -20757,7 +20757,7 @@
         <v>15.6</v>
       </c>
       <c r="CN37" t="n">
-        <v>1.899999999999984</v>
+        <v>0.6000000000000079</v>
       </c>
       <c r="CO37" t="n">
         <v>243.7</v>
@@ -20820,7 +20820,7 @@
         <v>16.7</v>
       </c>
       <c r="DI37" t="n">
-        <v>7.200000000000003</v>
+        <v>5.600000000000005</v>
       </c>
       <c r="DJ37" t="n">
         <v>34.4</v>
@@ -20829,7 +20829,7 @@
         <v>12.8</v>
       </c>
       <c r="DL37" t="n">
-        <v>101.6</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="DM37" t="n">
         <v>472.2</v>
@@ -21034,7 +21034,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
         <v>712.8</v>
@@ -21043,7 +21043,7 @@
         <v>18</v>
       </c>
       <c r="E38" t="n">
-        <v>8.199999999999974</v>
+        <v>8.099999999999959</v>
       </c>
       <c r="F38" t="n">
         <v>199.1</v>
@@ -21079,7 +21079,7 @@
         <v>9.9</v>
       </c>
       <c r="Q38" t="n">
-        <v>392.2000000000021</v>
+        <v>383.4000000000042</v>
       </c>
       <c r="R38" t="n">
         <v>13477.1</v>
@@ -21088,7 +21088,7 @@
         <v>17.1</v>
       </c>
       <c r="T38" t="n">
-        <v>41.7999999999999</v>
+        <v>38.39999999999981</v>
       </c>
       <c r="U38" t="n">
         <v>1029</v>
@@ -21097,7 +21097,7 @@
         <v>12.8</v>
       </c>
       <c r="W38" t="n">
-        <v>1.100000000000009</v>
+        <v>0.2000000000000086</v>
       </c>
       <c r="X38" t="n">
         <v>80.2</v>
@@ -21133,7 +21133,7 @@
         <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>433.0999999999999</v>
+        <v>428.7999999999997</v>
       </c>
       <c r="AJ38" t="n">
         <v>15298.6</v>
@@ -21160,7 +21160,7 @@
         <v>12.6</v>
       </c>
       <c r="AR38" t="n">
-        <v>5.900000000000013</v>
+        <v>4.300000000000033</v>
       </c>
       <c r="AS38" t="n">
         <v>217.9</v>
@@ -21178,7 +21178,7 @@
         <v>22.1</v>
       </c>
       <c r="AX38" t="n">
-        <v>2.500000000000009</v>
+        <v>2.300000000000008</v>
       </c>
       <c r="AY38" t="n">
         <v>79.90000000000001</v>
@@ -21259,7 +21259,7 @@
         <v>8.5</v>
       </c>
       <c r="BY38" t="n">
-        <v>14.80000000000004</v>
+        <v>13.8000000000001</v>
       </c>
       <c r="BZ38" t="n">
         <v>461.9</v>
@@ -21277,7 +21277,7 @@
         <v>18.5</v>
       </c>
       <c r="CE38" t="n">
-        <v>6.799999999999976</v>
+        <v>6.799999999999965</v>
       </c>
       <c r="CF38" t="n">
         <v>168.8</v>
@@ -21304,7 +21304,7 @@
         <v>19</v>
       </c>
       <c r="CN38" t="n">
-        <v>9.400000000000063</v>
+        <v>7.500000000000078</v>
       </c>
       <c r="CO38" t="n">
         <v>306.1</v>
@@ -21331,7 +21331,7 @@
         <v>22.7</v>
       </c>
       <c r="CW38" t="n">
-        <v>26.6999999999999</v>
+        <v>22.69999999999981</v>
       </c>
       <c r="CX38" t="n">
         <v>837.1</v>
@@ -21349,7 +21349,7 @@
         <v>16.6</v>
       </c>
       <c r="DC38" t="n">
-        <v>7.899999999999999</v>
+        <v>6.799999999999997</v>
       </c>
       <c r="DD38" t="n">
         <v>278.2</v>
@@ -21394,7 +21394,7 @@
         <v>13.8</v>
       </c>
       <c r="DR38" t="n">
-        <v>22.80000000000001</v>
+        <v>18.30000000000001</v>
       </c>
       <c r="DS38" t="n">
         <v>905.2</v>
@@ -21403,7 +21403,7 @@
         <v>18</v>
       </c>
       <c r="DU38" t="n">
-        <v>2.900000000000002</v>
+        <v>2.100000000000005</v>
       </c>
       <c r="DV38" t="n">
         <v>91</v>
@@ -21412,7 +21412,7 @@
         <v>21.7</v>
       </c>
       <c r="DX38" t="n">
-        <v>10.49999999999997</v>
+        <v>9.499999999999941</v>
       </c>
       <c r="DY38" t="n">
         <v>321.2</v>
@@ -21430,7 +21430,7 @@
         <v>19.3</v>
       </c>
       <c r="ED38" t="n">
-        <v>1.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="EE38" t="n">
         <v>107</v>
@@ -21581,7 +21581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.5</v>
+        <v>83.5</v>
       </c>
       <c r="C39" t="n">
         <v>881</v>
@@ -21590,7 +21590,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>36.69999999999999</v>
+        <v>28.50000000000001</v>
       </c>
       <c r="F39" t="n">
         <v>245.7</v>
@@ -21599,7 +21599,7 @@
         <v>19</v>
       </c>
       <c r="H39" t="n">
-        <v>6.100000000000001</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="I39" t="n">
         <v>44.3</v>
@@ -21617,7 +21617,7 @@
         <v>100</v>
       </c>
       <c r="N39" t="n">
-        <v>77.59999999999997</v>
+        <v>70.79999999999995</v>
       </c>
       <c r="O39" t="n">
         <v>516.3</v>
@@ -21626,7 +21626,7 @@
         <v>9</v>
       </c>
       <c r="Q39" t="n">
-        <v>2508.999999999998</v>
+        <v>2116.799999999996</v>
       </c>
       <c r="R39" t="n">
         <v>16636.3</v>
@@ -21635,7 +21635,7 @@
         <v>16.3</v>
       </c>
       <c r="T39" t="n">
-        <v>193.8</v>
+        <v>152.0000000000001</v>
       </c>
       <c r="U39" t="n">
         <v>1282.1</v>
@@ -21644,7 +21644,7 @@
         <v>11.8</v>
       </c>
       <c r="W39" t="n">
-        <v>15.2</v>
+        <v>14.09999999999999</v>
       </c>
       <c r="X39" t="n">
         <v>99.3</v>
@@ -21653,7 +21653,7 @@
         <v>12.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>116.5</v>
+        <v>85.70000000000009</v>
       </c>
       <c r="AA39" t="n">
         <v>771.2</v>
@@ -21662,7 +21662,7 @@
         <v>13.3</v>
       </c>
       <c r="AC39" t="n">
-        <v>28.09999999999999</v>
+        <v>25.30000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>176.7</v>
@@ -21680,7 +21680,7 @@
         <v>22</v>
       </c>
       <c r="AI39" t="n">
-        <v>2870.999999999998</v>
+        <v>2437.899999999998</v>
       </c>
       <c r="AJ39" t="n">
         <v>18862.7</v>
@@ -21698,7 +21698,7 @@
         <v>24.8</v>
       </c>
       <c r="AO39" t="n">
-        <v>3.199999999999999</v>
+        <v>2.999999999999996</v>
       </c>
       <c r="AP39" t="n">
         <v>25</v>
@@ -21707,7 +21707,7 @@
         <v>13.1</v>
       </c>
       <c r="AR39" t="n">
-        <v>40.29999999999998</v>
+        <v>34.39999999999997</v>
       </c>
       <c r="AS39" t="n">
         <v>269.3</v>
@@ -21716,7 +21716,7 @@
         <v>21.4</v>
       </c>
       <c r="AU39" t="n">
-        <v>57</v>
+        <v>44.90000000000001</v>
       </c>
       <c r="AV39" t="n">
         <v>408.1</v>
@@ -21734,7 +21734,7 @@
         <v>14.3</v>
       </c>
       <c r="BA39" t="n">
-        <v>18.2</v>
+        <v>15.4</v>
       </c>
       <c r="BB39" t="n">
         <v>112.9</v>
@@ -21743,7 +21743,7 @@
         <v>12.8</v>
       </c>
       <c r="BD39" t="n">
-        <v>87.50000000000006</v>
+        <v>76.10000000000002</v>
       </c>
       <c r="BE39" t="n">
         <v>571.6</v>
@@ -21752,7 +21752,7 @@
         <v>15.5</v>
       </c>
       <c r="BG39" t="n">
-        <v>23.59999999999999</v>
+        <v>19.79999999999998</v>
       </c>
       <c r="BH39" t="n">
         <v>155</v>
@@ -21761,7 +21761,7 @@
         <v>15.8</v>
       </c>
       <c r="BJ39" t="n">
-        <v>239.8</v>
+        <v>230.5000000000001</v>
       </c>
       <c r="BK39" t="n">
         <v>1592.2</v>
@@ -21770,7 +21770,7 @@
         <v>13.6</v>
       </c>
       <c r="BM39" t="n">
-        <v>4.299999999999979</v>
+        <v>2.89999999999997</v>
       </c>
       <c r="BN39" t="n">
         <v>238.5</v>
@@ -21779,7 +21779,7 @@
         <v>19.7</v>
       </c>
       <c r="BP39" t="n">
-        <v>3.900000000000006</v>
+        <v>0.100000000000108</v>
       </c>
       <c r="BQ39" t="n">
         <v>747.3</v>
@@ -21788,7 +21788,7 @@
         <v>14</v>
       </c>
       <c r="BS39" t="n">
-        <v>19.99999999999999</v>
+        <v>15.4</v>
       </c>
       <c r="BT39" t="n">
         <v>134.2</v>
@@ -21797,7 +21797,7 @@
         <v>11.2</v>
       </c>
       <c r="BV39" t="n">
-        <v>141.2</v>
+        <v>117.9</v>
       </c>
       <c r="BW39" t="n">
         <v>850.4</v>
@@ -21806,7 +21806,7 @@
         <v>7.2</v>
       </c>
       <c r="BY39" t="n">
-        <v>97.60000000000002</v>
+        <v>82.79999999999998</v>
       </c>
       <c r="BZ39" t="n">
         <v>561.2</v>
@@ -21815,7 +21815,7 @@
         <v>4.2</v>
       </c>
       <c r="CB39" t="n">
-        <v>198.8000000000002</v>
+        <v>165.2000000000003</v>
       </c>
       <c r="CC39" t="n">
         <v>1252.3</v>
@@ -21824,7 +21824,7 @@
         <v>18.3</v>
       </c>
       <c r="CE39" t="n">
-        <v>35.90000000000001</v>
+        <v>29.10000000000004</v>
       </c>
       <c r="CF39" t="n">
         <v>211.1</v>
@@ -21833,7 +21833,7 @@
         <v>11.5</v>
       </c>
       <c r="CH39" t="n">
-        <v>4.899999999999977</v>
+        <v>4.100000000000023</v>
       </c>
       <c r="CI39" t="n">
         <v>490</v>
@@ -21842,7 +21842,7 @@
         <v>24</v>
       </c>
       <c r="CK39" t="n">
-        <v>34.80000000000001</v>
+        <v>28.20000000000005</v>
       </c>
       <c r="CL39" t="n">
         <v>252.3</v>
@@ -21851,7 +21851,7 @@
         <v>16.2</v>
       </c>
       <c r="CN39" t="n">
-        <v>61.09999999999997</v>
+        <v>51.69999999999991</v>
       </c>
       <c r="CO39" t="n">
         <v>378.7</v>
@@ -21860,7 +21860,7 @@
         <v>11.3</v>
       </c>
       <c r="CQ39" t="n">
-        <v>53</v>
+        <v>44.29999999999998</v>
       </c>
       <c r="CR39" t="n">
         <v>329.6</v>
@@ -21869,7 +21869,7 @@
         <v>11.1</v>
       </c>
       <c r="CT39" t="n">
-        <v>262.2</v>
+        <v>193.8000000000003</v>
       </c>
       <c r="CU39" t="n">
         <v>1777.6</v>
@@ -21878,7 +21878,7 @@
         <v>20</v>
       </c>
       <c r="CW39" t="n">
-        <v>164.8</v>
+        <v>138.1000000000001</v>
       </c>
       <c r="CX39" t="n">
         <v>1036.6</v>
@@ -21887,7 +21887,7 @@
         <v>17</v>
       </c>
       <c r="CZ39" t="n">
-        <v>33.19999999999999</v>
+        <v>28.79999999999998</v>
       </c>
       <c r="DA39" t="n">
         <v>231</v>
@@ -21896,7 +21896,7 @@
         <v>16.1</v>
       </c>
       <c r="DC39" t="n">
-        <v>50.30000000000001</v>
+        <v>42.40000000000001</v>
       </c>
       <c r="DD39" t="n">
         <v>340.4</v>
@@ -21923,7 +21923,7 @@
         <v>12.7</v>
       </c>
       <c r="DL39" t="n">
-        <v>107.9</v>
+        <v>93.5</v>
       </c>
       <c r="DM39" t="n">
         <v>734.4</v>
@@ -21932,7 +21932,7 @@
         <v>22.8</v>
       </c>
       <c r="DO39" t="n">
-        <v>41.69999999999999</v>
+        <v>36.20000000000002</v>
       </c>
       <c r="DP39" t="n">
         <v>261.4</v>
@@ -21941,7 +21941,7 @@
         <v>13.1</v>
       </c>
       <c r="DR39" t="n">
-        <v>171.3</v>
+        <v>148.5</v>
       </c>
       <c r="DS39" t="n">
         <v>1116.4</v>
@@ -21950,7 +21950,7 @@
         <v>17</v>
       </c>
       <c r="DU39" t="n">
-        <v>18.7</v>
+        <v>15.8</v>
       </c>
       <c r="DV39" t="n">
         <v>112.4</v>
@@ -21959,7 +21959,7 @@
         <v>18.8</v>
       </c>
       <c r="DX39" t="n">
-        <v>60.89999999999998</v>
+        <v>50.40000000000001</v>
       </c>
       <c r="DY39" t="n">
         <v>392.4</v>
@@ -21968,7 +21968,7 @@
         <v>10.4</v>
       </c>
       <c r="EA39" t="n">
-        <v>79.30000000000001</v>
+        <v>74.90000000000003</v>
       </c>
       <c r="EB39" t="n">
         <v>578.7</v>
@@ -21977,7 +21977,7 @@
         <v>21.7</v>
       </c>
       <c r="ED39" t="n">
-        <v>8.699999999999999</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="EE39" t="n">
         <v>137.8</v>
@@ -22155,7 +22155,7 @@
         <v>14.9</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L40" t="n">
         <v>0.4</v>
@@ -22236,7 +22236,7 @@
         <v>15.2</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.4999999999999929</v>
+        <v>0.4999999999999858</v>
       </c>
       <c r="AM40" t="n">
         <v>68.40000000000001</v>
@@ -22272,7 +22272,7 @@
         <v>22.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>15.8</v>
+        <v>15.20000000000001</v>
       </c>
       <c r="AY40" t="n">
         <v>117</v>
@@ -22317,7 +22317,7 @@
         <v>12.3</v>
       </c>
       <c r="BM40" t="n">
-        <v>33.19999999999999</v>
+        <v>28.90000000000001</v>
       </c>
       <c r="BN40" t="n">
         <v>298.7</v>
@@ -22326,7 +22326,7 @@
         <v>26.8</v>
       </c>
       <c r="BP40" t="n">
-        <v>19.9999999999999</v>
+        <v>16.09999999999989</v>
       </c>
       <c r="BQ40" t="n">
         <v>880.4</v>
@@ -22380,7 +22380,7 @@
         <v>10</v>
       </c>
       <c r="CH40" t="n">
-        <v>70</v>
+        <v>65.10000000000002</v>
       </c>
       <c r="CI40" t="n">
         <v>578.3</v>
@@ -22461,7 +22461,7 @@
         <v>15.7</v>
       </c>
       <c r="DI40" t="n">
-        <v>7.200000000000003</v>
+        <v>6.599999999999998</v>
       </c>
       <c r="DJ40" t="n">
         <v>63.7</v>
@@ -22524,7 +22524,7 @@
         <v>21.3</v>
       </c>
       <c r="ED40" t="n">
-        <v>19.59999999999999</v>
+        <v>10.89999999999999</v>
       </c>
       <c r="EE40" t="n">
         <v>169.7</v>
@@ -22693,7 +22693,7 @@
         <v>17.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1.299999999999997</v>
+        <v>0.7999999999999969</v>
       </c>
       <c r="I41" t="n">
         <v>56.9</v>
@@ -22702,7 +22702,7 @@
         <v>13.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="L41" t="n">
         <v>0.4</v>
@@ -22711,7 +22711,7 @@
         <v>33.3</v>
       </c>
       <c r="N41" t="n">
-        <v>78.90000000000009</v>
+        <v>75.00000000000006</v>
       </c>
       <c r="O41" t="n">
         <v>686.3</v>
@@ -22720,7 +22720,7 @@
         <v>8.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>341.6999999999966</v>
+        <v>309.5999999999926</v>
       </c>
       <c r="R41" t="n">
         <v>22328.9</v>
@@ -22738,7 +22738,7 @@
         <v>13.1</v>
       </c>
       <c r="W41" t="n">
-        <v>0.3000000000000096</v>
+        <v>0.1000000000000192</v>
       </c>
       <c r="X41" t="n">
         <v>133.3</v>
@@ -22747,7 +22747,7 @@
         <v>12.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>17.59999999999999</v>
       </c>
       <c r="AA41" t="n">
         <v>1018.4</v>
@@ -22756,7 +22756,7 @@
         <v>11.3</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.899999999999977</v>
+        <v>2.199999999999956</v>
       </c>
       <c r="AD41" t="n">
         <v>239</v>
@@ -22765,7 +22765,7 @@
         <v>13.6</v>
       </c>
       <c r="AF41" t="n">
-        <v>2.5</v>
+        <v>2.099999999999991</v>
       </c>
       <c r="AG41" t="n">
         <v>249</v>
@@ -22774,7 +22774,7 @@
         <v>18.6</v>
       </c>
       <c r="AI41" t="n">
-        <v>371.6999999999971</v>
+        <v>330.3999999999924</v>
       </c>
       <c r="AJ41" t="n">
         <v>25343.3</v>
@@ -22783,7 +22783,7 @@
         <v>14.9</v>
       </c>
       <c r="AL41" t="n">
-        <v>1.300000000000004</v>
+        <v>0.8000000000000111</v>
       </c>
       <c r="AM41" t="n">
         <v>79.2</v>
@@ -22801,7 +22801,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AR41" t="n">
-        <v>3.299999999999955</v>
+        <v>0.4999999999999152</v>
       </c>
       <c r="AS41" t="n">
         <v>362.4</v>
@@ -22810,7 +22810,7 @@
         <v>18.7</v>
       </c>
       <c r="AU41" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV41" t="n">
         <v>547.3</v>
@@ -22837,7 +22837,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BD41" t="n">
-        <v>11.20000000000002</v>
+        <v>8.8000000000001</v>
       </c>
       <c r="BE41" t="n">
         <v>768.8</v>
@@ -22846,7 +22846,7 @@
         <v>14.4</v>
       </c>
       <c r="BG41" t="n">
-        <v>1.400000000000009</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="BH41" t="n">
         <v>206.8</v>
@@ -22855,7 +22855,7 @@
         <v>13.7</v>
       </c>
       <c r="BJ41" t="n">
-        <v>62</v>
+        <v>54.5</v>
       </c>
       <c r="BK41" t="n">
         <v>2096.4</v>
@@ -22873,7 +22873,7 @@
         <v>36</v>
       </c>
       <c r="BP41" t="n">
-        <v>130.1</v>
+        <v>110.1000000000001</v>
       </c>
       <c r="BQ41" t="n">
         <v>1033.7</v>
@@ -22891,7 +22891,7 @@
         <v>11.5</v>
       </c>
       <c r="BV41" t="n">
-        <v>24.7999999999999</v>
+        <v>21.8999999999999</v>
       </c>
       <c r="BW41" t="n">
         <v>1134.5</v>
@@ -22900,7 +22900,7 @@
         <v>5.2</v>
       </c>
       <c r="BY41" t="n">
-        <v>20.09999999999995</v>
+        <v>17.99999999999993</v>
       </c>
       <c r="BZ41" t="n">
         <v>748.6</v>
@@ -22963,7 +22963,7 @@
         <v>9.4</v>
       </c>
       <c r="CT41" t="n">
-        <v>18.59999999999974</v>
+        <v>14.69999999999965</v>
       </c>
       <c r="CU41" t="n">
         <v>2399</v>
@@ -22981,7 +22981,7 @@
         <v>15.4</v>
       </c>
       <c r="CZ41" t="n">
-        <v>2.599999999999994</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="DA41" t="n">
         <v>307.5</v>
@@ -23017,7 +23017,7 @@
         <v>13.4</v>
       </c>
       <c r="DL41" t="n">
-        <v>13.30000000000001</v>
+        <v>10.60000000000002</v>
       </c>
       <c r="DM41" t="n">
         <v>990.9</v>
@@ -23026,7 +23026,7 @@
         <v>21.4</v>
       </c>
       <c r="DO41" t="n">
-        <v>10.29999999999995</v>
+        <v>9.299999999999885</v>
       </c>
       <c r="DP41" t="n">
         <v>350.7</v>
@@ -23035,7 +23035,7 @@
         <v>11.1</v>
       </c>
       <c r="DR41" t="n">
-        <v>26.90000000000009</v>
+        <v>21.2000000000001</v>
       </c>
       <c r="DS41" t="n">
         <v>1504.9</v>
@@ -23053,7 +23053,7 @@
         <v>15.4</v>
       </c>
       <c r="DX41" t="n">
-        <v>9.5</v>
+        <v>6.399999999999977</v>
       </c>
       <c r="DY41" t="n">
         <v>528.2</v>
@@ -23062,7 +23062,7 @@
         <v>10</v>
       </c>
       <c r="EA41" t="n">
-        <v>9.800000000000068</v>
+        <v>5.300000000000125</v>
       </c>
       <c r="EB41" t="n">
         <v>774.4</v>
@@ -23222,7 +23222,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137</v>
+        <v>116.8</v>
       </c>
       <c r="C42" t="n">
         <v>1316.8</v>
@@ -23231,7 +23231,7 @@
         <v>13.6</v>
       </c>
       <c r="E42" t="n">
-        <v>36.89999999999998</v>
+        <v>30.80000000000001</v>
       </c>
       <c r="F42" t="n">
         <v>373.5</v>
@@ -23240,7 +23240,7 @@
         <v>16.5</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>5.700000000000003</v>
       </c>
       <c r="I42" t="n">
         <v>64.7</v>
@@ -23267,7 +23267,7 @@
         <v>9.1</v>
       </c>
       <c r="Q42" t="n">
-        <v>2744.599999999999</v>
+        <v>2402.900000000002</v>
       </c>
       <c r="R42" t="n">
         <v>25464.4</v>
@@ -23276,7 +23276,7 @@
         <v>14.5</v>
       </c>
       <c r="T42" t="n">
-        <v>202.8999999999999</v>
+        <v>162.3999999999997</v>
       </c>
       <c r="U42" t="n">
         <v>1979.5</v>
@@ -23285,7 +23285,7 @@
         <v>12.7</v>
       </c>
       <c r="W42" t="n">
-        <v>1.999999999999989</v>
+        <v>1.699999999999979</v>
       </c>
       <c r="X42" t="n">
         <v>149.9</v>
@@ -23294,7 +23294,7 @@
         <v>11.4</v>
       </c>
       <c r="Z42" t="n">
-        <v>126.7</v>
+        <v>107.7</v>
       </c>
       <c r="AA42" t="n">
         <v>1161.5</v>
@@ -23303,7 +23303,7 @@
         <v>10.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>29.50000000000003</v>
+        <v>26.60000000000005</v>
       </c>
       <c r="AD42" t="n">
         <v>270.5</v>
@@ -23312,7 +23312,7 @@
         <v>11.7</v>
       </c>
       <c r="AF42" t="n">
-        <v>31.79999999999998</v>
+        <v>29.29999999999998</v>
       </c>
       <c r="AG42" t="n">
         <v>284.3</v>
@@ -23321,7 +23321,7 @@
         <v>17.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>3108.299999999999</v>
+        <v>2736.600000000002</v>
       </c>
       <c r="AJ42" t="n">
         <v>28971.9</v>
@@ -23330,7 +23330,7 @@
         <v>14.3</v>
       </c>
       <c r="AL42" t="n">
-        <v>10.10000000000001</v>
+        <v>8.800000000000006</v>
       </c>
       <c r="AM42" t="n">
         <v>91.5</v>
@@ -23339,7 +23339,7 @@
         <v>19.9</v>
       </c>
       <c r="AO42" t="n">
-        <v>4</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="AP42" t="n">
         <v>36.2</v>
@@ -23348,7 +23348,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AR42" t="n">
-        <v>43.90000000000003</v>
+        <v>40.60000000000007</v>
       </c>
       <c r="AS42" t="n">
         <v>411.8</v>
@@ -23357,7 +23357,7 @@
         <v>17.1</v>
       </c>
       <c r="AU42" t="n">
-        <v>66</v>
+        <v>53.5</v>
       </c>
       <c r="AV42" t="n">
         <v>625.9</v>
@@ -23366,7 +23366,7 @@
         <v>20.1</v>
       </c>
       <c r="AX42" t="n">
-        <v>15.09999999999999</v>
+        <v>13.09999999999999</v>
       </c>
       <c r="AY42" t="n">
         <v>157.2</v>
@@ -23375,7 +23375,7 @@
         <v>12.3</v>
       </c>
       <c r="BA42" t="n">
-        <v>1.399999999999981</v>
+        <v>0.8999999999999917</v>
       </c>
       <c r="BB42" t="n">
         <v>172</v>
@@ -23384,7 +23384,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BD42" t="n">
-        <v>96.5</v>
+        <v>85.29999999999998</v>
       </c>
       <c r="BE42" t="n">
         <v>870.5</v>
@@ -23393,7 +23393,7 @@
         <v>12.6</v>
       </c>
       <c r="BG42" t="n">
-        <v>25.29999999999998</v>
+        <v>23.89999999999997</v>
       </c>
       <c r="BH42" t="n">
         <v>237</v>
@@ -23402,7 +23402,7 @@
         <v>14.1</v>
       </c>
       <c r="BJ42" t="n">
-        <v>275.7000000000003</v>
+        <v>213.7000000000003</v>
       </c>
       <c r="BK42" t="n">
         <v>2382</v>
@@ -23429,7 +23429,7 @@
         <v>18.1</v>
       </c>
       <c r="BS42" t="n">
-        <v>20.59999999999999</v>
+        <v>17.19999999999999</v>
       </c>
       <c r="BT42" t="n">
         <v>204.3</v>
@@ -23438,7 +23438,7 @@
         <v>11.1</v>
       </c>
       <c r="BV42" t="n">
-        <v>130.5</v>
+        <v>105.7000000000001</v>
       </c>
       <c r="BW42" t="n">
         <v>1298.9</v>
@@ -23447,7 +23447,7 @@
         <v>4.1</v>
       </c>
       <c r="BY42" t="n">
-        <v>84.60000000000002</v>
+        <v>64.50000000000007</v>
       </c>
       <c r="BZ42" t="n">
         <v>857.6</v>
@@ -23456,7 +23456,7 @@
         <v>0.2</v>
       </c>
       <c r="CB42" t="n">
-        <v>203.7</v>
+        <v>188.2999999999997</v>
       </c>
       <c r="CC42" t="n">
         <v>1908.5</v>
@@ -23465,7 +23465,7 @@
         <v>15.6</v>
       </c>
       <c r="CE42" t="n">
-        <v>34.39999999999998</v>
+        <v>29.7999999999999</v>
       </c>
       <c r="CF42" t="n">
         <v>328.6</v>
@@ -23483,7 +23483,7 @@
         <v>22.5</v>
       </c>
       <c r="CK42" t="n">
-        <v>7.899999999999977</v>
+        <v>6.599999999999937</v>
       </c>
       <c r="CL42" t="n">
         <v>392.4</v>
@@ -23492,7 +23492,7 @@
         <v>22.5</v>
       </c>
       <c r="CN42" t="n">
-        <v>65</v>
+        <v>56.69999999999993</v>
       </c>
       <c r="CO42" t="n">
         <v>582.4</v>
@@ -23501,7 +23501,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="CQ42" t="n">
-        <v>56.5</v>
+        <v>49.50000000000006</v>
       </c>
       <c r="CR42" t="n">
         <v>502.1</v>
@@ -23510,7 +23510,7 @@
         <v>8.6</v>
       </c>
       <c r="CT42" t="n">
-        <v>273.8000000000002</v>
+        <v>255.2000000000004</v>
       </c>
       <c r="CU42" t="n">
         <v>2727.1</v>
@@ -23519,7 +23519,7 @@
         <v>18.9</v>
       </c>
       <c r="CW42" t="n">
-        <v>166.8999999999999</v>
+        <v>144.0999999999999</v>
       </c>
       <c r="CX42" t="n">
         <v>1586.9</v>
@@ -23555,7 +23555,7 @@
         <v>18.8</v>
       </c>
       <c r="DI42" t="n">
-        <v>9.200000000000003</v>
+        <v>6.000000000000016</v>
       </c>
       <c r="DJ42" t="n">
         <v>84.40000000000001</v>
@@ -23564,7 +23564,7 @@
         <v>12.4</v>
       </c>
       <c r="DL42" t="n">
-        <v>117.1999999999999</v>
+        <v>103.8999999999999</v>
       </c>
       <c r="DM42" t="n">
         <v>1129</v>
@@ -23573,7 +23573,7 @@
         <v>20.1</v>
       </c>
       <c r="DO42" t="n">
-        <v>44.79999999999995</v>
+        <v>34.5</v>
       </c>
       <c r="DP42" t="n">
         <v>406.3</v>
@@ -23582,7 +23582,7 @@
         <v>10.2</v>
       </c>
       <c r="DR42" t="n">
-        <v>194.5999999999999</v>
+        <v>167.6999999999998</v>
       </c>
       <c r="DS42" t="n">
         <v>1721.8</v>
@@ -23591,7 +23591,7 @@
         <v>14.3</v>
       </c>
       <c r="DU42" t="n">
-        <v>21.20000000000002</v>
+        <v>15.50000000000002</v>
       </c>
       <c r="DV42" t="n">
         <v>175.7</v>
@@ -23600,7 +23600,7 @@
         <v>15.1</v>
       </c>
       <c r="DX42" t="n">
-        <v>69.20000000000005</v>
+        <v>59.70000000000005</v>
       </c>
       <c r="DY42" t="n">
         <v>604.1</v>
@@ -23618,7 +23618,7 @@
         <v>19.9</v>
       </c>
       <c r="ED42" t="n">
-        <v>20.20000000000002</v>
+        <v>17.30000000000001</v>
       </c>
       <c r="EE42" t="n">
         <v>216.5</v>
@@ -23796,7 +23796,7 @@
         <v>11.1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L43" t="n">
         <v>0.5</v>
@@ -23805,7 +23805,7 @@
         <v>25</v>
       </c>
       <c r="N43" t="n">
-        <v>94.80000000000007</v>
+        <v>77.60000000000025</v>
       </c>
       <c r="O43" t="n">
         <v>871.3</v>
@@ -23832,7 +23832,7 @@
         <v>13.6</v>
       </c>
       <c r="W43" t="n">
-        <v>17.30000000000001</v>
+        <v>15.30000000000002</v>
       </c>
       <c r="X43" t="n">
         <v>175.1</v>
@@ -23958,7 +23958,7 @@
         <v>7.3</v>
       </c>
       <c r="BM43" t="n">
-        <v>15.5</v>
+        <v>15.40000000000003</v>
       </c>
       <c r="BN43" t="n">
         <v>493.7</v>
@@ -24021,7 +24021,7 @@
         <v>11.2</v>
       </c>
       <c r="CH43" t="n">
-        <v>73.30000000000007</v>
+        <v>62.90000000000009</v>
       </c>
       <c r="CI43" t="n">
         <v>828.3</v>
@@ -24075,7 +24075,7 @@
         <v>13.4</v>
       </c>
       <c r="CZ43" t="n">
-        <v>38.09999999999997</v>
+        <v>37.39999999999998</v>
       </c>
       <c r="DA43" t="n">
         <v>389.6</v>
@@ -24084,7 +24084,7 @@
         <v>12.9</v>
       </c>
       <c r="DC43" t="n">
-        <v>1.799999999999905</v>
+        <v>0.499999999999851</v>
       </c>
       <c r="DD43" t="n">
         <v>574.7</v>
@@ -24093,7 +24093,7 @@
         <v>10.8</v>
       </c>
       <c r="DF43" t="n">
-        <v>12.10000000000008</v>
+        <v>11.10000000000008</v>
       </c>
       <c r="DG43" t="n">
         <v>2524.5</v>
@@ -24156,7 +24156,7 @@
         <v>8.6</v>
       </c>
       <c r="EA43" t="n">
-        <v>96.29999999999995</v>
+        <v>91.29999999999995</v>
       </c>
       <c r="EB43" t="n">
         <v>996.5</v>
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.8</v>
+        <v>96.10000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>1614.1</v>
@@ -24325,7 +24325,7 @@
         <v>12.1</v>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>24.29999999999995</v>
       </c>
       <c r="F44" t="n">
         <v>456.8</v>
@@ -24334,7 +24334,7 @@
         <v>15.1</v>
       </c>
       <c r="H44" t="n">
-        <v>3.299999999999997</v>
+        <v>2.599999999999994</v>
       </c>
       <c r="I44" t="n">
         <v>80.59999999999999</v>
@@ -24361,7 +24361,7 @@
         <v>8</v>
       </c>
       <c r="Q44" t="n">
-        <v>1569.499999999996</v>
+        <v>1391.799999999992</v>
       </c>
       <c r="R44" t="n">
         <v>31746</v>
@@ -24370,7 +24370,7 @@
         <v>13.7</v>
       </c>
       <c r="T44" t="n">
-        <v>104.5000000000002</v>
+        <v>92.0000000000002</v>
       </c>
       <c r="U44" t="n">
         <v>2480.6</v>
@@ -24388,7 +24388,7 @@
         <v>14.1</v>
       </c>
       <c r="Z44" t="n">
-        <v>91</v>
+        <v>77.2</v>
       </c>
       <c r="AA44" t="n">
         <v>1440.3</v>
@@ -24397,7 +24397,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC44" t="n">
-        <v>12.50000000000005</v>
+        <v>9.900000000000105</v>
       </c>
       <c r="AD44" t="n">
         <v>337.4</v>
@@ -24406,7 +24406,7 @@
         <v>11.1</v>
       </c>
       <c r="AF44" t="n">
-        <v>11.90000000000003</v>
+        <v>11.00000000000002</v>
       </c>
       <c r="AG44" t="n">
         <v>349.2</v>
@@ -24415,7 +24415,7 @@
         <v>14</v>
       </c>
       <c r="AI44" t="n">
-        <v>1864.299999999999</v>
+        <v>1637.399999999997</v>
       </c>
       <c r="AJ44" t="n">
         <v>36228.7</v>
@@ -24424,7 +24424,7 @@
         <v>14</v>
       </c>
       <c r="AL44" t="n">
-        <v>7</v>
+        <v>6.30000000000001</v>
       </c>
       <c r="AM44" t="n">
         <v>117.6</v>
@@ -24433,7 +24433,7 @@
         <v>21</v>
       </c>
       <c r="AO44" t="n">
-        <v>7.100000000000001</v>
+        <v>5.200000000000003</v>
       </c>
       <c r="AP44" t="n">
         <v>48.3</v>
@@ -24442,7 +24442,7 @@
         <v>12.6</v>
       </c>
       <c r="AR44" t="n">
-        <v>14.60000000000002</v>
+        <v>13.40000000000007</v>
       </c>
       <c r="AS44" t="n">
         <v>512.3</v>
@@ -24451,7 +24451,7 @@
         <v>16.2</v>
       </c>
       <c r="AU44" t="n">
-        <v>51.79999999999998</v>
+        <v>46.69999999999996</v>
       </c>
       <c r="AV44" t="n">
         <v>786.4</v>
@@ -24460,7 +24460,7 @@
         <v>19.5</v>
       </c>
       <c r="AX44" t="n">
-        <v>7.099999999999959</v>
+        <v>3.499999999999929</v>
       </c>
       <c r="AY44" t="n">
         <v>199.5</v>
@@ -24469,7 +24469,7 @@
         <v>14.8</v>
       </c>
       <c r="BA44" t="n">
-        <v>6.799999999999979</v>
+        <v>5.99999999999994</v>
       </c>
       <c r="BB44" t="n">
         <v>217.2</v>
@@ -24478,7 +24478,7 @@
         <v>8.9</v>
       </c>
       <c r="BD44" t="n">
-        <v>44.69999999999999</v>
+        <v>41.69999999999999</v>
       </c>
       <c r="BE44" t="n">
         <v>1083.4</v>
@@ -24487,7 +24487,7 @@
         <v>11.8</v>
       </c>
       <c r="BG44" t="n">
-        <v>22.49999999999997</v>
+        <v>19.59999999999993</v>
       </c>
       <c r="BH44" t="n">
         <v>294.1</v>
@@ -24496,7 +24496,7 @@
         <v>12.6</v>
       </c>
       <c r="BJ44" t="n">
-        <v>154.2000000000003</v>
+        <v>146.2000000000008</v>
       </c>
       <c r="BK44" t="n">
         <v>2994.1</v>
@@ -24505,7 +24505,7 @@
         <v>8.6</v>
       </c>
       <c r="BM44" t="n">
-        <v>158.4</v>
+        <v>142.9</v>
       </c>
       <c r="BN44" t="n">
         <v>576.7</v>
@@ -24514,7 +24514,7 @@
         <v>44.6</v>
       </c>
       <c r="BP44" t="n">
-        <v>56.0000000000002</v>
+        <v>54.90000000000029</v>
       </c>
       <c r="BQ44" t="n">
         <v>1590</v>
@@ -24523,7 +24523,7 @@
         <v>22</v>
       </c>
       <c r="BS44" t="n">
-        <v>24.80000000000001</v>
+        <v>21.99999999999999</v>
       </c>
       <c r="BT44" t="n">
         <v>250.4</v>
@@ -24532,7 +24532,7 @@
         <v>9.9</v>
       </c>
       <c r="BV44" t="n">
-        <v>159.7</v>
+        <v>122.7</v>
       </c>
       <c r="BW44" t="n">
         <v>1627</v>
@@ -24541,7 +24541,7 @@
         <v>5.3</v>
       </c>
       <c r="BY44" t="n">
-        <v>112.3999999999999</v>
+        <v>81.09999999999982</v>
       </c>
       <c r="BZ44" t="n">
         <v>1082.5</v>
@@ -24550,7 +24550,7 @@
         <v>2.5</v>
       </c>
       <c r="CB44" t="n">
-        <v>95.90000000000009</v>
+        <v>65.00000000000017</v>
       </c>
       <c r="CC44" t="n">
         <v>2385.1</v>
@@ -24559,7 +24559,7 @@
         <v>14.1</v>
       </c>
       <c r="CE44" t="n">
-        <v>7.199999999999989</v>
+        <v>5.599999999999966</v>
       </c>
       <c r="CF44" t="n">
         <v>411.6</v>
@@ -24577,7 +24577,7 @@
         <v>20.8</v>
       </c>
       <c r="CK44" t="n">
-        <v>21.5</v>
+        <v>19.69999999999999</v>
       </c>
       <c r="CL44" t="n">
         <v>520.6</v>
@@ -24586,7 +24586,7 @@
         <v>27.8</v>
       </c>
       <c r="CN44" t="n">
-        <v>23.5</v>
+        <v>20.10000000000002</v>
       </c>
       <c r="CO44" t="n">
         <v>722.5</v>
@@ -24595,7 +24595,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="CQ44" t="n">
-        <v>20.69999999999993</v>
+        <v>16.39999999999986</v>
       </c>
       <c r="CR44" t="n">
         <v>626.5</v>
@@ -24604,7 +24604,7 @@
         <v>8.1</v>
       </c>
       <c r="CT44" t="n">
-        <v>165</v>
+        <v>145.2000000000003</v>
       </c>
       <c r="CU44" t="n">
         <v>3393.3</v>
@@ -24613,7 +24613,7 @@
         <v>18.6</v>
       </c>
       <c r="CW44" t="n">
-        <v>94.7999999999997</v>
+        <v>82.89999999999938</v>
       </c>
       <c r="CX44" t="n">
         <v>1957.2</v>
@@ -24631,7 +24631,7 @@
         <v>12.4</v>
       </c>
       <c r="DC44" t="n">
-        <v>37.90000000000009</v>
+        <v>36.10000000000019</v>
       </c>
       <c r="DD44" t="n">
         <v>643.4</v>
@@ -24640,7 +24640,7 @@
         <v>11.7</v>
       </c>
       <c r="DF44" t="n">
-        <v>135</v>
+        <v>122.8999999999999</v>
       </c>
       <c r="DG44" t="n">
         <v>2855.7</v>
@@ -24649,7 +24649,7 @@
         <v>22.1</v>
       </c>
       <c r="DI44" t="n">
-        <v>8.899999999999991</v>
+        <v>8.499999999999986</v>
       </c>
       <c r="DJ44" t="n">
         <v>106.4</v>
@@ -24658,7 +24658,7 @@
         <v>13.3</v>
       </c>
       <c r="DL44" t="n">
-        <v>48.8</v>
+        <v>38.7999999999999</v>
       </c>
       <c r="DM44" t="n">
         <v>1404.4</v>
@@ -24667,7 +24667,7 @@
         <v>18.5</v>
       </c>
       <c r="DO44" t="n">
-        <v>21.5</v>
+        <v>9.99999999999994</v>
       </c>
       <c r="DP44" t="n">
         <v>507.8</v>
@@ -24676,7 +24676,7 @@
         <v>8.1</v>
       </c>
       <c r="DR44" t="n">
-        <v>90.80000000000024</v>
+        <v>76.70000000000016</v>
       </c>
       <c r="DS44" t="n">
         <v>2167.1</v>
@@ -24685,7 +24685,7 @@
         <v>13.5</v>
       </c>
       <c r="DU44" t="n">
-        <v>1.60000000000003</v>
+        <v>0.5000000000000711</v>
       </c>
       <c r="DV44" t="n">
         <v>223.3</v>
@@ -24694,7 +24694,7 @@
         <v>13.9</v>
       </c>
       <c r="DX44" t="n">
-        <v>28.90000000000002</v>
+        <v>25.20000000000009</v>
       </c>
       <c r="DY44" t="n">
         <v>756.9</v>
@@ -24712,7 +24712,7 @@
         <v>18.4</v>
       </c>
       <c r="ED44" t="n">
-        <v>41.70000000000002</v>
+        <v>39.10000000000006</v>
       </c>
       <c r="EE44" t="n">
         <v>273.3</v>
